--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S309"/>
+  <dimension ref="A1:S311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17566,18 +17566,122 @@
       <c r="O309" t="n">
         <v>429.2933333333333</v>
       </c>
-      <c r="P309" t="n">
-        <v>418.16</v>
-      </c>
+      <c r="P309" t="inlineStr"/>
       <c r="Q309" t="n">
         <v>401.4377777777778</v>
       </c>
-      <c r="R309" t="n">
-        <v>379.73</v>
-      </c>
+      <c r="R309" t="inlineStr"/>
       <c r="S309" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>395.595</v>
+      </c>
+      <c r="C310" t="n">
+        <v>394.125</v>
+      </c>
+      <c r="D310" t="n">
+        <v>401.1061538461539</v>
+      </c>
+      <c r="E310" t="n">
+        <v>407.6661538461539</v>
+      </c>
+      <c r="F310" t="n">
+        <v>403.3428571428572</v>
+      </c>
+      <c r="G310" t="n">
+        <v>395.9228571428571</v>
+      </c>
+      <c r="H310" t="n">
+        <v>395.97</v>
+      </c>
+      <c r="I310" t="n">
+        <v>403.0928571428572</v>
+      </c>
+      <c r="J310" t="n">
+        <v>399.25</v>
+      </c>
+      <c r="K310" t="n">
+        <v>396.085</v>
+      </c>
+      <c r="L310" t="n">
+        <v>408.6435294117647</v>
+      </c>
+      <c r="M310" t="n">
+        <v>418.55</v>
+      </c>
+      <c r="N310" t="n">
+        <v>418.4328571428572</v>
+      </c>
+      <c r="O310" t="n">
+        <v>415.75</v>
+      </c>
+      <c r="P310" t="n">
+        <v>401.4500000000001</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>376.12</v>
+      </c>
+      <c r="R310" t="n">
+        <v>366.78</v>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>401.05</v>
+      </c>
+      <c r="L311" t="n">
+        <v>407.99</v>
+      </c>
+      <c r="M311" t="n">
+        <v>419.1522222222222</v>
+      </c>
+      <c r="N311" t="n">
+        <v>415.5928571428572</v>
+      </c>
+      <c r="O311" t="n">
+        <v>415.4633333333333</v>
+      </c>
+      <c r="P311" t="n">
+        <v>399.81</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>371.9744444444444</v>
+      </c>
+      <c r="R311" t="n">
+        <v>364.87</v>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17592,7 +17696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B363"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21230,6 +21334,36 @@
       </c>
       <c r="B363" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.34</v>
       </c>
     </row>
   </sheetData>
@@ -21398,28 +21532,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2882486560933726</v>
+        <v>0.2899078177436764</v>
       </c>
       <c r="J2" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K2" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04834016037074507</v>
+        <v>0.04926135801678067</v>
       </c>
       <c r="M2" t="n">
-        <v>7.487451777178184</v>
+        <v>7.464620191723277</v>
       </c>
       <c r="N2" t="n">
-        <v>85.2344768418361</v>
+        <v>84.89902020414512</v>
       </c>
       <c r="O2" t="n">
-        <v>9.232251991894291</v>
+        <v>9.214066431502712</v>
       </c>
       <c r="P2" t="n">
-        <v>386.2640547667366</v>
+        <v>386.2475897510781</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -21475,28 +21609,28 @@
         <v>0.0861</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4505068532604907</v>
+        <v>0.4463539441652692</v>
       </c>
       <c r="J3" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K3" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1275480886778001</v>
+        <v>0.1262872646706983</v>
       </c>
       <c r="M3" t="n">
-        <v>6.845138016543935</v>
+        <v>6.837016750678468</v>
       </c>
       <c r="N3" t="n">
-        <v>73.7934683831794</v>
+        <v>73.59267687626364</v>
       </c>
       <c r="O3" t="n">
-        <v>8.590312472965078</v>
+        <v>8.578617422187776</v>
       </c>
       <c r="P3" t="n">
-        <v>387.8008610725404</v>
+        <v>387.8414868257275</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -21552,28 +21686,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>0.472197897844759</v>
+        <v>0.4717793862755314</v>
       </c>
       <c r="J4" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K4" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1153738187354727</v>
+        <v>0.1160289471515598</v>
       </c>
       <c r="M4" t="n">
-        <v>7.589022107012735</v>
+        <v>7.560172606564584</v>
       </c>
       <c r="N4" t="n">
-        <v>89.67515299709653</v>
+        <v>89.31321763296346</v>
       </c>
       <c r="O4" t="n">
-        <v>9.469696563095173</v>
+        <v>9.450567053513955</v>
       </c>
       <c r="P4" t="n">
-        <v>389.6695818360911</v>
+        <v>389.6737410629962</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -21629,28 +21763,28 @@
         <v>0.0718</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5015789088451825</v>
+        <v>0.5026763417668144</v>
       </c>
       <c r="J5" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L5" t="n">
-        <v>0.101251821211491</v>
+        <v>0.1024108304725939</v>
       </c>
       <c r="M5" t="n">
-        <v>8.013854457141852</v>
+        <v>7.986920822755875</v>
       </c>
       <c r="N5" t="n">
-        <v>115.6755470682609</v>
+        <v>115.206973643278</v>
       </c>
       <c r="O5" t="n">
-        <v>10.75525671791524</v>
+        <v>10.73345115250813</v>
       </c>
       <c r="P5" t="n">
-        <v>393.6007539697679</v>
+        <v>393.5897565830923</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -21706,28 +21840,28 @@
         <v>0.0765</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4458691871022659</v>
+        <v>0.4529706828863302</v>
       </c>
       <c r="J6" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K6" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09125099518974999</v>
+        <v>0.09436218480226477</v>
       </c>
       <c r="M6" t="n">
-        <v>7.727410193758606</v>
+        <v>7.72867038840397</v>
       </c>
       <c r="N6" t="n">
-        <v>101.2807337444665</v>
+        <v>101.1763817001614</v>
       </c>
       <c r="O6" t="n">
-        <v>10.06383295491665</v>
+        <v>10.05864711082765</v>
       </c>
       <c r="P6" t="n">
-        <v>383.2940563621275</v>
+        <v>383.2225100630345</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -21783,28 +21917,28 @@
         <v>0.0762</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5448515960277474</v>
+        <v>0.5482967914962504</v>
       </c>
       <c r="J7" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K7" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L7" t="n">
-        <v>0.118839643267454</v>
+        <v>0.1210508867034736</v>
       </c>
       <c r="M7" t="n">
-        <v>8.14779782948156</v>
+        <v>8.131599938830508</v>
       </c>
       <c r="N7" t="n">
-        <v>110.3433681867534</v>
+        <v>109.9737643744588</v>
       </c>
       <c r="O7" t="n">
-        <v>10.50444516320369</v>
+        <v>10.48683767274286</v>
       </c>
       <c r="P7" t="n">
-        <v>377.986032537128</v>
+        <v>377.9516847657664</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -21860,28 +21994,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5253546184130806</v>
+        <v>0.5280286219394303</v>
       </c>
       <c r="J8" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K8" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1113905582949374</v>
+        <v>0.1132879783586187</v>
       </c>
       <c r="M8" t="n">
-        <v>8.03780751817928</v>
+        <v>8.017324450224233</v>
       </c>
       <c r="N8" t="n">
-        <v>108.9300084772848</v>
+        <v>108.5361077496977</v>
       </c>
       <c r="O8" t="n">
-        <v>10.43695398463004</v>
+        <v>10.41806641127314</v>
       </c>
       <c r="P8" t="n">
-        <v>379.526923023279</v>
+        <v>379.5002126966494</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -21937,28 +22071,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5110366889581596</v>
+        <v>0.5167246025955778</v>
       </c>
       <c r="J9" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K9" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L9" t="n">
-        <v>0.113542560615449</v>
+        <v>0.1165608392889579</v>
       </c>
       <c r="M9" t="n">
-        <v>7.957458914416742</v>
+        <v>7.95344506988848</v>
       </c>
       <c r="N9" t="n">
-        <v>101.7761085617532</v>
+        <v>101.5390477635421</v>
       </c>
       <c r="O9" t="n">
-        <v>10.08841457126704</v>
+        <v>10.07665856142512</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5242118208737</v>
+        <v>383.4674491317266</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -22014,28 +22148,28 @@
         <v>0.0643</v>
       </c>
       <c r="I10" t="n">
-        <v>0.500006112340551</v>
+        <v>0.5064158048972857</v>
       </c>
       <c r="J10" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K10" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09893160000130952</v>
+        <v>0.1019271234103918</v>
       </c>
       <c r="M10" t="n">
-        <v>8.510053674176795</v>
+        <v>8.506768920878645</v>
       </c>
       <c r="N10" t="n">
-        <v>116.3573165903986</v>
+        <v>116.0877963804702</v>
       </c>
       <c r="O10" t="n">
-        <v>10.78690486610495</v>
+        <v>10.77440468798486</v>
       </c>
       <c r="P10" t="n">
-        <v>379.3033399184975</v>
+        <v>379.240522534166</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -22091,28 +22225,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4130893549256377</v>
+        <v>0.4235928721840097</v>
       </c>
       <c r="J11" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K11" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08628597376086522</v>
+        <v>0.09165310081187084</v>
       </c>
       <c r="M11" t="n">
-        <v>7.516373254791982</v>
+        <v>7.500705834210038</v>
       </c>
       <c r="N11" t="n">
-        <v>90.95635321424243</v>
+        <v>90.5389428226577</v>
       </c>
       <c r="O11" t="n">
-        <v>9.537104026602751</v>
+        <v>9.515195364397817</v>
       </c>
       <c r="P11" t="n">
-        <v>382.1468152210546</v>
+        <v>382.0437221532248</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -22168,28 +22302,28 @@
         <v>0.096</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4855935531240961</v>
+        <v>0.4934726199984469</v>
       </c>
       <c r="J12" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K12" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1143916057560592</v>
+        <v>0.1196634902942987</v>
       </c>
       <c r="M12" t="n">
-        <v>7.590000668337988</v>
+        <v>7.558424941926982</v>
       </c>
       <c r="N12" t="n">
-        <v>92.09179497670746</v>
+        <v>91.46209325999787</v>
       </c>
       <c r="O12" t="n">
-        <v>9.596446997545886</v>
+        <v>9.563581612554884</v>
       </c>
       <c r="P12" t="n">
-        <v>391.6825192461141</v>
+        <v>391.605634221929</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -22245,28 +22379,28 @@
         <v>0.1016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4482314676873158</v>
+        <v>0.4651129499111382</v>
       </c>
       <c r="J13" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K13" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07136472775400859</v>
+        <v>0.07729723248971354</v>
       </c>
       <c r="M13" t="n">
-        <v>8.84265638275367</v>
+        <v>8.852607976412775</v>
       </c>
       <c r="N13" t="n">
-        <v>131.1341753860309</v>
+        <v>130.8752693516772</v>
       </c>
       <c r="O13" t="n">
-        <v>11.45138312109201</v>
+        <v>11.44007296094204</v>
       </c>
       <c r="P13" t="n">
-        <v>397.4149568628827</v>
+        <v>397.2470177225828</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -22322,28 +22456,28 @@
         <v>0.0805</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6136894620148323</v>
+        <v>0.6219459331671217</v>
       </c>
       <c r="J14" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K14" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1291046792653296</v>
+        <v>0.1342647402794697</v>
       </c>
       <c r="M14" t="n">
-        <v>8.966674374394325</v>
+        <v>8.929359836467807</v>
       </c>
       <c r="N14" t="n">
-        <v>124.7349501089657</v>
+        <v>123.8904830604997</v>
       </c>
       <c r="O14" t="n">
-        <v>11.16848020587249</v>
+        <v>11.13061018365569</v>
       </c>
       <c r="P14" t="n">
-        <v>396.8421159066167</v>
+        <v>396.7598248841096</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -22393,28 +22527,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.6784544744762052</v>
+        <v>0.6886532531716552</v>
       </c>
       <c r="J15" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K15" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1301488394588445</v>
+        <v>0.1357377448202043</v>
       </c>
       <c r="M15" t="n">
-        <v>9.675206591957826</v>
+        <v>9.639344733676024</v>
       </c>
       <c r="N15" t="n">
-        <v>152.4747143589496</v>
+        <v>151.4313884564519</v>
       </c>
       <c r="O15" t="n">
-        <v>12.34806520710632</v>
+        <v>12.30574615602207</v>
       </c>
       <c r="P15" t="n">
-        <v>392.8333482353078</v>
+        <v>392.7321042100253</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -22470,28 +22604,28 @@
         <v>0.0586</v>
       </c>
       <c r="I16" t="n">
-        <v>0.442895360833093</v>
+        <v>0.4307621467302722</v>
       </c>
       <c r="J16" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K16" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05243324448133146</v>
+        <v>0.05080993578869342</v>
       </c>
       <c r="M16" t="n">
-        <v>10.84718781195265</v>
+        <v>10.74123748302714</v>
       </c>
       <c r="N16" t="n">
-        <v>175.2814812647353</v>
+        <v>172.5252646969219</v>
       </c>
       <c r="O16" t="n">
-        <v>13.23939127243905</v>
+        <v>13.13488731192323</v>
       </c>
       <c r="P16" t="n">
-        <v>385.049294420248</v>
+        <v>385.1679931806661</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -22547,28 +22681,28 @@
         <v>0.0507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4197070234434165</v>
+        <v>0.4173894538524693</v>
       </c>
       <c r="J17" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K17" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04236215280813727</v>
+        <v>0.04282100360919594</v>
       </c>
       <c r="M17" t="n">
-        <v>11.0750153475782</v>
+        <v>10.99356075287199</v>
       </c>
       <c r="N17" t="n">
-        <v>192.3340194643151</v>
+        <v>190.6521443107045</v>
       </c>
       <c r="O17" t="n">
-        <v>13.86845411227636</v>
+        <v>13.8076842486604</v>
       </c>
       <c r="P17" t="n">
-        <v>364.5259846575638</v>
+        <v>364.5491718440252</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -22624,28 +22758,28 @@
         <v>0.0587</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2206931899734053</v>
+        <v>-0.2266061875392596</v>
       </c>
       <c r="J18" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K18" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01018049238722141</v>
+        <v>0.01094111131206343</v>
       </c>
       <c r="M18" t="n">
-        <v>10.68631665666635</v>
+        <v>10.61462082165049</v>
       </c>
       <c r="N18" t="n">
-        <v>223.1553855755456</v>
+        <v>220.5521755270601</v>
       </c>
       <c r="O18" t="n">
-        <v>14.93838631096229</v>
+        <v>14.85099914238298</v>
       </c>
       <c r="P18" t="n">
-        <v>363.6956809095756</v>
+        <v>363.7519649309735</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -22682,7 +22816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S309"/>
+  <dimension ref="A1:S311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47930,24 +48064,174 @@
           <t>-36.04768017487816,174.54146678588694</t>
         </is>
       </c>
-      <c r="P309" t="inlineStr">
-        <is>
-          <t>-36.047663583003796,174.54213359946624</t>
-        </is>
-      </c>
+      <c r="P309" t="inlineStr"/>
       <c r="Q309" t="inlineStr">
         <is>
           <t>-36.04741859771445,174.54288169566215</t>
         </is>
       </c>
-      <c r="R309" t="inlineStr">
-        <is>
-          <t>-36.04717515971652,174.54376862011523</t>
-        </is>
-      </c>
+      <c r="R309" t="inlineStr"/>
       <c r="S309" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>-36.043148798658564,174.5321990929878</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>-36.043695077939944,174.53278215686063</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>-36.04418314593319,174.53342788935782</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>-36.044606848774016,174.53406429820805</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>-36.04500141926232,174.53477513188216</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>-36.045502280532084,174.53547003697196</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>-36.045959373427536,174.53617457717644</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>-36.04634104455714,174.5368990740384</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>-36.046719725117825,174.5376200089522</t>
+        </is>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>-36.04709152964329,174.53839649342416</t>
+        </is>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>-36.04736762006763,174.53921609181353</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>-36.04756447685957,174.5399971203975</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>-36.04773701536182,174.5407437042206</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>-36.04780169746316,174.5414810827324</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>-36.04780032680981,174.54221135613022</t>
+        </is>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>-36.047605759893614,174.5430424802408</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>-36.04727156355173,174.5438496641046</t>
+        </is>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>-36.047052562074505,174.53842359442126</t>
+        </is>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>-36.04737283432419,174.53921271674332</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>-36.04755936676692,174.53999937524608</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>-36.0477623020771,174.54073879548983</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>-36.047804269686175,174.54148138534893</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>-36.04781374750328,174.54221898755915</t>
+        </is>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>-36.047636405973215,174.54306880732474</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>-36.04728578218171,174.5438616173277</t>
+        </is>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -21377,7 +21377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21468,35 +21468,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -21555,27 +21560,28 @@
       <c r="P2" t="n">
         <v>386.2475897510781</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.52895597085922 -36.04555253179196, 174.53652319984312 -36.0399435040604)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5289559708592</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.04555253179196</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5365231998431</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.0399435040604</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5327395853512</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.04274801792619</v>
       </c>
     </row>
@@ -21632,27 +21638,28 @@
       <c r="P3" t="n">
         <v>387.8414868257275</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.52955282702334 -36.04609144595398, 174.5371159527431 -36.04047876619022)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5295528270233</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.04609144595398</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5371159527431</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.04047876619022</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5333343898832</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.0432851060721</v>
       </c>
     </row>
@@ -21709,27 +21716,28 @@
       <c r="P4" t="n">
         <v>389.6737410629962</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.53024388769808 -36.0467100918504, 174.5375706672485 -36.04089491554969)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5302438876981</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.0467100918504</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5375706672485</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.04089491554969</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5339072774733</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.04380250370005</v>
       </c>
     </row>
@@ -21786,27 +21794,28 @@
       <c r="P5" t="n">
         <v>393.5897565830923</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.53132097055433 -36.047529054817275, 174.53753070363274 -36.040914025512286)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.5313209705543</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.04752905481728</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5375307036327</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.04091402551229</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5344258370935</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.04422154016478</v>
       </c>
     </row>
@@ -21863,27 +21872,28 @@
       <c r="P6" t="n">
         <v>383.2225100630345</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.53230382291497 -36.04803291439228, 174.537957209735 -36.04109763244737)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.532303822915</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.04803291439228</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.537957209735</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.04109763244737</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.535130516325</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.04456527341982</v>
       </c>
     </row>
@@ -21940,27 +21950,28 @@
       <c r="P7" t="n">
         <v>377.9516847657664</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.5328144350648 -36.04834569768023, 174.53900383712912 -36.041718154582405)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5328144350648</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.04834569768023</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5390038371291</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.04171815458241</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.535909136097</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.04503192613132</v>
       </c>
     </row>
@@ -22017,27 +22028,28 @@
       <c r="P8" t="n">
         <v>379.5002126966494</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.53347014859202 -36.04877282357121, 174.53977272182735 -36.04221578195521)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.533470148592</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.04877282357121</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.5397727218273</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.04221578195521</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.5366214352097</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.04549430276321</v>
       </c>
     </row>
@@ -22094,27 +22106,28 @@
       <c r="P9" t="n">
         <v>383.4674491317266</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.5344175989591 -36.04936436920516, 174.54009775569716 -36.0424434974566)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.5344175989591</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.04936436920516</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.5400977556972</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.0424434974566</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.5372576773281</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.04590393333088</v>
       </c>
     </row>
@@ -22171,27 +22184,28 @@
       <c r="P10" t="n">
         <v>379.240522534166</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.53548841377207 -36.04987478968875, 174.5404140497907 -36.04258371875482)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.5354884137721</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.04987478968875</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.5404140497907</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.04258371875482</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.5379512317814</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.04622925422179</v>
       </c>
     </row>
@@ -22248,27 +22262,28 @@
       <c r="P11" t="n">
         <v>382.0437221532248</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.53623441522655 -36.050200165677694, 174.54127048707446 -36.04295887339355)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.5362344152265</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.05020016567769</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.5412704870745</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.04295887339355</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.5387524511505</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.04657951953563</v>
       </c>
     </row>
@@ -22325,27 +22340,28 @@
       <c r="P12" t="n">
         <v>391.605634221929</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.53710561870028 -36.05062801027957, 174.54187022041174 -36.043266933817)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.5371056187003</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.05062801027957</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.5418702204117</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.043266933817</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.539487919556</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.04694747204829</v>
       </c>
     </row>
@@ -22402,27 +22418,28 @@
       <c r="P13" t="n">
         <v>397.2470177225828</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.5384299118528 -36.05111602882563, 174.54188373848308 -36.04328865706582)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.5384299118528</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.05111602882563</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.5418837384831</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.04328865706582</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.5401568251679</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.04720234294572</v>
       </c>
     </row>
@@ -22479,27 +22496,28 @@
       <c r="P14" t="n">
         <v>396.7598248841096</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.54002044312668 -36.05146264407903, 174.54161459417608 -36.04325049827942)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.5400204431267</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.05146264407903</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.5416145941761</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.04325049827942</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.5408175186514</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.04735657117922</v>
       </c>
     </row>
@@ -22550,27 +22568,28 @@
       <c r="P15" t="n">
         <v>392.7321042100253</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (174.54191998858843 -36.0515321661374, 174.54094638791906 -36.04325651657138)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>174.5419199885884</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.0515321661374</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>174.5409463879191</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.04325651657138</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>174.5414331882537</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.04739434135439</v>
       </c>
     </row>
@@ -22627,27 +22646,28 @@
       <c r="P16" t="n">
         <v>385.1679931806661</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (174.54407950687852 -36.05108551528336, 174.53978674645637 -36.04353612241413)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>174.5440795068785</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.05108551528336</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>174.5397867464564</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.04353612241413</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>174.5419331266675</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.04731081884874</v>
       </c>
     </row>
@@ -22704,27 +22724,28 @@
       <c r="P17" t="n">
         <v>364.5491718440252</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (174.54543118087122 -36.050386206262694, 174.53957122303387 -36.043564771187505)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>174.5454311808712</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.05038620626269</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>174.5395712230339</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.0435647711875</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>174.5425012019525</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.0469754887251</v>
       </c>
     </row>
@@ -22781,27 +22802,28 @@
       <c r="P18" t="n">
         <v>363.7519649309735</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (174.54614513824987 -36.05000196277361, 174.54037056499698 -36.04313281972008)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>174.5461451382499</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.05000196277361</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>174.540370564997</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.04313281972008</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>174.5432578516234</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.04656739124684</v>
       </c>
     </row>

--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S311"/>
+  <dimension ref="A1:S312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17685,6 +17685,69 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>377.395</v>
+      </c>
+      <c r="C312" t="n">
+        <v>383.145</v>
+      </c>
+      <c r="D312" t="n">
+        <v>381.4092307692308</v>
+      </c>
+      <c r="E312" t="n">
+        <v>382.3792307692308</v>
+      </c>
+      <c r="F312" t="n">
+        <v>373.4785714285715</v>
+      </c>
+      <c r="G312" t="n">
+        <v>372.3185714285714</v>
+      </c>
+      <c r="H312" t="n">
+        <v>370.0533333333333</v>
+      </c>
+      <c r="I312" t="n">
+        <v>382.7585714285714</v>
+      </c>
+      <c r="J312" t="n">
+        <v>373.6166666666667</v>
+      </c>
+      <c r="K312" t="n">
+        <v>379.205</v>
+      </c>
+      <c r="L312" t="n">
+        <v>389.0170588235294</v>
+      </c>
+      <c r="M312" t="n">
+        <v>395.8544444444445</v>
+      </c>
+      <c r="N312" t="n">
+        <v>396.5485714285714</v>
+      </c>
+      <c r="O312" t="n">
+        <v>398.5866666666667</v>
+      </c>
+      <c r="P312" t="n">
+        <v>396.46</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>378.8088888888889</v>
+      </c>
+      <c r="R312" t="n">
+        <v>362.87</v>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17696,7 +17759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21364,6 +21427,16 @@
       </c>
       <c r="B366" t="n">
         <v>-0.34</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -21537,28 +21610,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2899078177436764</v>
+        <v>0.27635436328664</v>
       </c>
       <c r="J2" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K2" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04926135801678067</v>
+        <v>0.04480492377003487</v>
       </c>
       <c r="M2" t="n">
-        <v>7.464620191723277</v>
+        <v>7.502248423112011</v>
       </c>
       <c r="N2" t="n">
-        <v>84.89902020414512</v>
+        <v>85.62727968504942</v>
       </c>
       <c r="O2" t="n">
-        <v>9.214066431502712</v>
+        <v>9.253500942078594</v>
       </c>
       <c r="P2" t="n">
-        <v>386.2475897510781</v>
+        <v>386.3840543108664</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21615,28 +21688,28 @@
         <v>0.0861</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4463539441652692</v>
+        <v>0.4329779634106131</v>
       </c>
       <c r="J3" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K3" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1262872646706983</v>
+        <v>0.1191450074029353</v>
       </c>
       <c r="M3" t="n">
-        <v>6.837016750678468</v>
+        <v>6.872497064302341</v>
       </c>
       <c r="N3" t="n">
-        <v>73.59267687626364</v>
+        <v>74.35476186316647</v>
       </c>
       <c r="O3" t="n">
-        <v>8.578617422187776</v>
+        <v>8.622920726944351</v>
       </c>
       <c r="P3" t="n">
-        <v>387.8414868257275</v>
+        <v>387.9742853470448</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21693,28 +21766,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4717793862755314</v>
+        <v>0.455415123953822</v>
       </c>
       <c r="J4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K4" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1160289471515598</v>
+        <v>0.10802841294617</v>
       </c>
       <c r="M4" t="n">
-        <v>7.560172606564584</v>
+        <v>7.602142008999632</v>
       </c>
       <c r="N4" t="n">
-        <v>89.31321763296346</v>
+        <v>90.60445030074622</v>
       </c>
       <c r="O4" t="n">
-        <v>9.450567053513955</v>
+        <v>9.518636998055248</v>
       </c>
       <c r="P4" t="n">
-        <v>389.6737410629962</v>
+        <v>389.8388000676733</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21771,28 +21844,28 @@
         <v>0.0718</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5026763417668144</v>
+        <v>0.4828209878417141</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K5" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1024108304725939</v>
+        <v>0.09424465677275051</v>
       </c>
       <c r="M5" t="n">
-        <v>7.986920822755875</v>
+        <v>8.044393237115417</v>
       </c>
       <c r="N5" t="n">
-        <v>115.206973643278</v>
+        <v>117.0854659169745</v>
       </c>
       <c r="O5" t="n">
-        <v>10.73345115250813</v>
+        <v>10.82060376859695</v>
       </c>
       <c r="P5" t="n">
-        <v>393.5897565830923</v>
+        <v>393.7916594334516</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21849,28 +21922,28 @@
         <v>0.0765</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4529706828863302</v>
+        <v>0.4353420964276817</v>
       </c>
       <c r="J6" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K6" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09436218480226477</v>
+        <v>0.08706006870143701</v>
       </c>
       <c r="M6" t="n">
-        <v>7.72867038840397</v>
+        <v>7.789736815932003</v>
       </c>
       <c r="N6" t="n">
-        <v>101.1763817001614</v>
+        <v>102.5907173590251</v>
       </c>
       <c r="O6" t="n">
-        <v>10.05864711082765</v>
+        <v>10.12870758581889</v>
       </c>
       <c r="P6" t="n">
-        <v>383.2225100630345</v>
+        <v>383.4026776067858</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21927,28 +22000,28 @@
         <v>0.0762</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5482967914962504</v>
+        <v>0.5316132587895246</v>
       </c>
       <c r="J7" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K7" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1210508867034736</v>
+        <v>0.1141866960375116</v>
       </c>
       <c r="M7" t="n">
-        <v>8.131599938830508</v>
+        <v>8.1785714887283</v>
       </c>
       <c r="N7" t="n">
-        <v>109.9737643744588</v>
+        <v>111.0479678801903</v>
       </c>
       <c r="O7" t="n">
-        <v>10.48683767274286</v>
+        <v>10.53792996181842</v>
       </c>
       <c r="P7" t="n">
-        <v>377.9516847657664</v>
+        <v>378.1202308266169</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22005,28 +22078,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5280286219394303</v>
+        <v>0.5080962401069375</v>
       </c>
       <c r="J8" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K8" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1132879783586187</v>
+        <v>0.1049087129455114</v>
       </c>
       <c r="M8" t="n">
-        <v>8.017324450224233</v>
+        <v>8.082804637617677</v>
       </c>
       <c r="N8" t="n">
-        <v>108.5361077496977</v>
+        <v>110.168047891495</v>
       </c>
       <c r="O8" t="n">
-        <v>10.41806641127314</v>
+        <v>10.49609679316531</v>
       </c>
       <c r="P8" t="n">
-        <v>379.5002126966494</v>
+        <v>379.7018923729377</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22083,28 +22156,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5167246025955778</v>
+        <v>0.504547042617488</v>
       </c>
       <c r="J9" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K9" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1165608392889579</v>
+        <v>0.1119335191261021</v>
       </c>
       <c r="M9" t="n">
-        <v>7.95344506988848</v>
+        <v>7.974471454057412</v>
       </c>
       <c r="N9" t="n">
-        <v>101.5390477635421</v>
+        <v>101.9049942837826</v>
       </c>
       <c r="O9" t="n">
-        <v>10.07665856142512</v>
+        <v>10.09480035878781</v>
       </c>
       <c r="P9" t="n">
-        <v>383.4674491317266</v>
+        <v>383.5905806963103</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22161,28 +22234,28 @@
         <v>0.0643</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5064158048972857</v>
+        <v>0.4897887552207946</v>
       </c>
       <c r="J10" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K10" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1019271234103918</v>
+        <v>0.09577282378015128</v>
       </c>
       <c r="M10" t="n">
-        <v>8.506768920878645</v>
+        <v>8.543110558302342</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0877963804702</v>
+        <v>117.0312017204004</v>
       </c>
       <c r="O10" t="n">
-        <v>10.77440468798486</v>
+        <v>10.81809603028187</v>
       </c>
       <c r="P10" t="n">
-        <v>379.240522534166</v>
+        <v>379.4056688039801</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22239,28 +22312,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4235928721840097</v>
+        <v>0.4113765361901641</v>
       </c>
       <c r="J11" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K11" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09165310081187084</v>
+        <v>0.08702602054097186</v>
       </c>
       <c r="M11" t="n">
-        <v>7.500705834210038</v>
+        <v>7.528356404474236</v>
       </c>
       <c r="N11" t="n">
-        <v>90.5389428226577</v>
+        <v>90.92665493525445</v>
       </c>
       <c r="O11" t="n">
-        <v>9.515195364397817</v>
+        <v>9.535546913274269</v>
       </c>
       <c r="P11" t="n">
-        <v>382.0437221532248</v>
+        <v>382.1647895468927</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22317,28 +22390,28 @@
         <v>0.096</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4934726199984469</v>
+        <v>0.479394208044786</v>
       </c>
       <c r="J12" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K12" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1196634902942987</v>
+        <v>0.1136819398388935</v>
       </c>
       <c r="M12" t="n">
-        <v>7.558424941926982</v>
+        <v>7.596628870145405</v>
       </c>
       <c r="N12" t="n">
-        <v>91.46209325999787</v>
+        <v>92.04500819476954</v>
       </c>
       <c r="O12" t="n">
-        <v>9.563581612554884</v>
+        <v>9.594008974082186</v>
       </c>
       <c r="P12" t="n">
-        <v>391.605634221929</v>
+        <v>391.7445050764243</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22395,28 +22468,28 @@
         <v>0.1016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4651129499111382</v>
+        <v>0.4538174508013459</v>
       </c>
       <c r="J13" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K13" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07729723248971354</v>
+        <v>0.07414004662732299</v>
       </c>
       <c r="M13" t="n">
-        <v>8.852607976412775</v>
+        <v>8.869306613641536</v>
       </c>
       <c r="N13" t="n">
-        <v>130.8752693516772</v>
+        <v>131.0501739226594</v>
       </c>
       <c r="O13" t="n">
-        <v>11.44007296094204</v>
+        <v>11.44771479041382</v>
       </c>
       <c r="P13" t="n">
-        <v>397.2470177225828</v>
+        <v>397.3606047622539</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22473,28 +22546,28 @@
         <v>0.0805</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6219459331671217</v>
+        <v>0.6072432264501109</v>
       </c>
       <c r="J14" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K14" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1342647402794697</v>
+        <v>0.1289779508723315</v>
       </c>
       <c r="M14" t="n">
-        <v>8.929359836467807</v>
+        <v>8.960104849423594</v>
       </c>
       <c r="N14" t="n">
-        <v>123.8904830604997</v>
+        <v>124.440496595735</v>
       </c>
       <c r="O14" t="n">
-        <v>11.13061018365569</v>
+        <v>11.15529007223636</v>
       </c>
       <c r="P14" t="n">
-        <v>396.7598248841096</v>
+        <v>396.9080026479763</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22545,28 +22618,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.6886532531716552</v>
+        <v>0.6776971977048171</v>
       </c>
       <c r="J15" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K15" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1357377448202043</v>
+        <v>0.1327647063314484</v>
       </c>
       <c r="M15" t="n">
-        <v>9.639344733676024</v>
+        <v>9.648557819455167</v>
       </c>
       <c r="N15" t="n">
-        <v>151.4313884564519</v>
+        <v>151.3719847073852</v>
       </c>
       <c r="O15" t="n">
-        <v>12.30574615602207</v>
+        <v>12.30333226030189</v>
       </c>
       <c r="P15" t="n">
-        <v>392.7321042100253</v>
+        <v>392.8420243729188</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22623,28 +22696,28 @@
         <v>0.0586</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4307621467302722</v>
+        <v>0.4309969673023317</v>
       </c>
       <c r="J16" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K16" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05080993578869342</v>
+        <v>0.05137930743049091</v>
       </c>
       <c r="M16" t="n">
-        <v>10.74123748302714</v>
+        <v>10.69495645142079</v>
       </c>
       <c r="N16" t="n">
-        <v>172.5252646969219</v>
+        <v>171.765499302454</v>
       </c>
       <c r="O16" t="n">
-        <v>13.13488731192323</v>
+        <v>13.10593374401282</v>
       </c>
       <c r="P16" t="n">
-        <v>385.1679931806661</v>
+        <v>385.1656161115023</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22701,28 +22774,28 @@
         <v>0.0507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4173894538524693</v>
+        <v>0.4210008298569399</v>
       </c>
       <c r="J17" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K17" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04282100360919594</v>
+        <v>0.04400036397717044</v>
       </c>
       <c r="M17" t="n">
-        <v>10.99356075287199</v>
+        <v>10.96082418894723</v>
       </c>
       <c r="N17" t="n">
-        <v>190.6521443107045</v>
+        <v>189.8529596586666</v>
       </c>
       <c r="O17" t="n">
-        <v>13.8076842486604</v>
+        <v>13.7787140059828</v>
       </c>
       <c r="P17" t="n">
-        <v>364.5491718440252</v>
+        <v>364.5128251987494</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -22779,28 +22852,28 @@
         <v>0.0587</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2266061875392596</v>
+        <v>-0.2212729427862371</v>
       </c>
       <c r="J18" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K18" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01094111131206343</v>
+        <v>0.01056119508261011</v>
       </c>
       <c r="M18" t="n">
-        <v>10.61462082165049</v>
+        <v>10.58393000686857</v>
       </c>
       <c r="N18" t="n">
-        <v>220.5521755270601</v>
+        <v>219.6542037024038</v>
       </c>
       <c r="O18" t="n">
-        <v>14.85099914238298</v>
+        <v>14.82073559923406</v>
       </c>
       <c r="P18" t="n">
-        <v>363.7519649309735</v>
+        <v>363.6981921716151</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -22838,7 +22911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S311"/>
+  <dimension ref="A1:S312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48257,6 +48330,103 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>-36.04325938820481,174.53204989214936</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>-36.0437618399186,174.53269219303255</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>-36.04430723731028,174.5332715389072</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>-36.044788110577265,174.53389413954082</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>-36.0452258786686,174.5345921577999</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>-36.045671802058,174.5353117195571</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>-36.04614351855847,174.53599757523222</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>-36.04649355932361,174.53677389887756</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>-36.046922293048254,174.53748315763735</t>
+        </is>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>-36.04722401148587,174.53830435529616</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>-36.047524211991025,174.53911473319098</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>-36.04775705755468,174.53991214318586</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>-36.04793186806795,174.54070587877126</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>-36.04795570183436,174.54149920105723</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>-36.04784116172289,174.54223457615697</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>-36.04758588224004,174.54302540398726</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>-36.047300670798066,174.54387413379632</t>
+        </is>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S312"/>
+  <dimension ref="A1:S314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17748,6 +17748,130 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>393.225</v>
+      </c>
+      <c r="C313" t="n">
+        <v>401.335</v>
+      </c>
+      <c r="D313" t="n">
+        <v>404.3192307692308</v>
+      </c>
+      <c r="E313" t="n">
+        <v>409.1292307692308</v>
+      </c>
+      <c r="F313" t="n">
+        <v>398.6457142857143</v>
+      </c>
+      <c r="G313" t="n">
+        <v>393.4157142857143</v>
+      </c>
+      <c r="H313" t="n">
+        <v>394.9633333333334</v>
+      </c>
+      <c r="I313" t="n">
+        <v>401.1057142857143</v>
+      </c>
+      <c r="J313" t="n">
+        <v>394.3366666666667</v>
+      </c>
+      <c r="K313" t="n">
+        <v>393.495</v>
+      </c>
+      <c r="L313" t="n">
+        <v>401.6505882352942</v>
+      </c>
+      <c r="M313" t="n">
+        <v>415.2077777777778</v>
+      </c>
+      <c r="N313" t="n">
+        <v>414.8257142857143</v>
+      </c>
+      <c r="O313" t="n">
+        <v>415.5766666666667</v>
+      </c>
+      <c r="P313" t="n">
+        <v>407.54</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>387.0555555555555</v>
+      </c>
+      <c r="R313" t="inlineStr"/>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>393.205</v>
+      </c>
+      <c r="C314" t="n">
+        <v>392.785</v>
+      </c>
+      <c r="D314" t="n">
+        <v>398.3492307692308</v>
+      </c>
+      <c r="E314" t="n">
+        <v>396.7092307692308</v>
+      </c>
+      <c r="F314" t="n">
+        <v>390.6671428571429</v>
+      </c>
+      <c r="G314" t="n">
+        <v>381.5371428571429</v>
+      </c>
+      <c r="H314" t="n">
+        <v>391.6466666666666</v>
+      </c>
+      <c r="I314" t="n">
+        <v>394.7671428571429</v>
+      </c>
+      <c r="J314" t="n">
+        <v>384.9033333333333</v>
+      </c>
+      <c r="K314" t="n">
+        <v>382.935</v>
+      </c>
+      <c r="L314" t="n">
+        <v>397.1047058823529</v>
+      </c>
+      <c r="M314" t="n">
+        <v>387.1322222222223</v>
+      </c>
+      <c r="N314" t="n">
+        <v>394.6671428571429</v>
+      </c>
+      <c r="O314" t="n">
+        <v>398.4633333333333</v>
+      </c>
+      <c r="P314" t="n">
+        <v>391.97</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>372.6944444444445</v>
+      </c>
+      <c r="R314" t="n">
+        <v>368.72</v>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17759,7 +17883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21437,6 +21561,26 @@
       </c>
       <c r="B367" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -21610,28 +21754,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>0.27635436328664</v>
+        <v>0.2758890715887417</v>
       </c>
       <c r="J2" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04480492377003487</v>
+        <v>0.04542282763978422</v>
       </c>
       <c r="M2" t="n">
-        <v>7.502248423112011</v>
+        <v>7.443312144837528</v>
       </c>
       <c r="N2" t="n">
-        <v>85.62727968504942</v>
+        <v>84.92892570694684</v>
       </c>
       <c r="O2" t="n">
-        <v>9.253500942078594</v>
+        <v>9.215689106461157</v>
       </c>
       <c r="P2" t="n">
-        <v>386.3840543108664</v>
+        <v>386.3887603972531</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21688,28 +21832,28 @@
         <v>0.0861</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4329779634106131</v>
+        <v>0.4296111504239478</v>
       </c>
       <c r="J3" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K3" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1191450074029353</v>
+        <v>0.1191087017652512</v>
       </c>
       <c r="M3" t="n">
-        <v>6.872497064302341</v>
+        <v>6.85070568199471</v>
       </c>
       <c r="N3" t="n">
-        <v>74.35476186316647</v>
+        <v>73.92763372439877</v>
       </c>
       <c r="O3" t="n">
-        <v>8.622920726944351</v>
+        <v>8.598118033872225</v>
       </c>
       <c r="P3" t="n">
-        <v>387.9742853470448</v>
+        <v>388.0079012316338</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21766,28 +21910,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>0.455415123953822</v>
+        <v>0.4550462971916054</v>
       </c>
       <c r="J4" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K4" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L4" t="n">
-        <v>0.10802841294617</v>
+        <v>0.1094393784324251</v>
       </c>
       <c r="M4" t="n">
-        <v>7.602142008999632</v>
+        <v>7.565056937018118</v>
       </c>
       <c r="N4" t="n">
-        <v>90.60445030074622</v>
+        <v>89.95154755224823</v>
       </c>
       <c r="O4" t="n">
-        <v>9.518636998055248</v>
+        <v>9.484278968495614</v>
       </c>
       <c r="P4" t="n">
-        <v>389.8388000676733</v>
+        <v>389.8425622128738</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21844,28 +21988,28 @@
         <v>0.0718</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4828209878417141</v>
+        <v>0.4774551563271225</v>
       </c>
       <c r="J5" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K5" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09424465677275051</v>
+        <v>0.09352525095825359</v>
       </c>
       <c r="M5" t="n">
-        <v>8.044393237115417</v>
+        <v>8.027718456065516</v>
       </c>
       <c r="N5" t="n">
-        <v>117.0854659169745</v>
+        <v>116.5340995180522</v>
       </c>
       <c r="O5" t="n">
-        <v>10.82060376859695</v>
+        <v>10.7950960865595</v>
       </c>
       <c r="P5" t="n">
-        <v>393.7916594334516</v>
+        <v>393.846523666799</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21922,28 +22066,28 @@
         <v>0.0765</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4353420964276817</v>
+        <v>0.4354086103820048</v>
       </c>
       <c r="J6" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K6" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08706006870143701</v>
+        <v>0.08837611598900541</v>
       </c>
       <c r="M6" t="n">
-        <v>7.789736815932003</v>
+        <v>7.759225358447013</v>
       </c>
       <c r="N6" t="n">
-        <v>102.5907173590251</v>
+        <v>101.8948437381812</v>
       </c>
       <c r="O6" t="n">
-        <v>10.12870758581889</v>
+        <v>10.09429758518051</v>
       </c>
       <c r="P6" t="n">
-        <v>383.4026776067858</v>
+        <v>383.402028140915</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22000,28 +22144,28 @@
         <v>0.0762</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5316132587895246</v>
+        <v>0.5243919167605479</v>
       </c>
       <c r="J7" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K7" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1141866960375116</v>
+        <v>0.1129114580952351</v>
       </c>
       <c r="M7" t="n">
-        <v>8.1785714887283</v>
+        <v>8.16195534514598</v>
       </c>
       <c r="N7" t="n">
-        <v>111.0479678801903</v>
+        <v>110.599269721119</v>
       </c>
       <c r="O7" t="n">
-        <v>10.53792996181842</v>
+        <v>10.51661873993343</v>
       </c>
       <c r="P7" t="n">
-        <v>378.1202308266169</v>
+        <v>378.1935321863343</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22078,28 +22222,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5080962401069375</v>
+        <v>0.5089812317332663</v>
       </c>
       <c r="J8" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K8" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1049087129455114</v>
+        <v>0.1070209094927297</v>
       </c>
       <c r="M8" t="n">
-        <v>8.082804637617677</v>
+        <v>8.032115194107881</v>
       </c>
       <c r="N8" t="n">
-        <v>110.168047891495</v>
+        <v>109.3277738529048</v>
       </c>
       <c r="O8" t="n">
-        <v>10.49609679316531</v>
+        <v>10.45599224621484</v>
       </c>
       <c r="P8" t="n">
-        <v>379.7018923729377</v>
+        <v>379.692914947185</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22156,28 +22300,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.504547042617488</v>
+        <v>0.5068635664945249</v>
       </c>
       <c r="J9" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K9" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1119335191261021</v>
+        <v>0.1146729522612049</v>
       </c>
       <c r="M9" t="n">
-        <v>7.974471454057412</v>
+        <v>7.936587211260002</v>
       </c>
       <c r="N9" t="n">
-        <v>101.9049942837826</v>
+        <v>101.1846953228595</v>
       </c>
       <c r="O9" t="n">
-        <v>10.09480035878781</v>
+        <v>10.05906035983776</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5905806963103</v>
+        <v>383.567087123054</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22234,28 +22378,28 @@
         <v>0.0643</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4897887552207946</v>
+        <v>0.4855806423315665</v>
       </c>
       <c r="J10" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K10" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09577282378015128</v>
+        <v>0.09581208169894861</v>
       </c>
       <c r="M10" t="n">
-        <v>8.543110558302342</v>
+        <v>8.509920651552914</v>
       </c>
       <c r="N10" t="n">
-        <v>117.0312017204004</v>
+        <v>116.2913567133034</v>
       </c>
       <c r="O10" t="n">
-        <v>10.81809603028187</v>
+        <v>10.7838470275363</v>
       </c>
       <c r="P10" t="n">
-        <v>379.4056688039801</v>
+        <v>379.4476788128605</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22312,28 +22456,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4113765361901641</v>
+        <v>0.4034241959319901</v>
       </c>
       <c r="J11" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K11" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08702602054097186</v>
+        <v>0.08517673975118811</v>
       </c>
       <c r="M11" t="n">
-        <v>7.528356404474236</v>
+        <v>7.511682524865168</v>
       </c>
       <c r="N11" t="n">
-        <v>90.92665493525445</v>
+        <v>90.57749145709188</v>
       </c>
       <c r="O11" t="n">
-        <v>9.535546913274269</v>
+        <v>9.517220784298948</v>
       </c>
       <c r="P11" t="n">
-        <v>382.1647895468927</v>
+        <v>382.2439623193949</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22390,28 +22534,28 @@
         <v>0.096</v>
       </c>
       <c r="I12" t="n">
-        <v>0.479394208044786</v>
+        <v>0.4708667317950559</v>
       </c>
       <c r="J12" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K12" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1136819398388935</v>
+        <v>0.111910360982499</v>
       </c>
       <c r="M12" t="n">
-        <v>7.596628870145405</v>
+        <v>7.575577557746571</v>
       </c>
       <c r="N12" t="n">
-        <v>92.04500819476954</v>
+        <v>91.49618492218467</v>
       </c>
       <c r="O12" t="n">
-        <v>9.594008974082186</v>
+        <v>9.565363815463826</v>
       </c>
       <c r="P12" t="n">
-        <v>391.7445050764243</v>
+        <v>391.8289811355698</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22468,28 +22612,28 @@
         <v>0.1016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4538174508013459</v>
+        <v>0.4406708494293257</v>
       </c>
       <c r="J13" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K13" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07414004662732299</v>
+        <v>0.07040864336699548</v>
       </c>
       <c r="M13" t="n">
-        <v>8.869306613641536</v>
+        <v>8.908747415712025</v>
       </c>
       <c r="N13" t="n">
-        <v>131.0501739226594</v>
+        <v>132.0426586690604</v>
       </c>
       <c r="O13" t="n">
-        <v>11.44771479041382</v>
+        <v>11.49098162338886</v>
       </c>
       <c r="P13" t="n">
-        <v>397.3606047622539</v>
+        <v>397.4934643062771</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22546,28 +22690,28 @@
         <v>0.0805</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6072432264501109</v>
+        <v>0.5933144289127456</v>
       </c>
       <c r="J14" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K14" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1289779508723315</v>
+        <v>0.1248885866328133</v>
       </c>
       <c r="M14" t="n">
-        <v>8.960104849423594</v>
+        <v>8.971116947729906</v>
       </c>
       <c r="N14" t="n">
-        <v>124.440496595735</v>
+        <v>124.7373698700293</v>
       </c>
       <c r="O14" t="n">
-        <v>11.15529007223636</v>
+        <v>11.16858853526395</v>
       </c>
       <c r="P14" t="n">
-        <v>396.9080026479763</v>
+        <v>397.0490196163714</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22618,28 +22762,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.6776971977048171</v>
+        <v>0.6717331444688566</v>
       </c>
       <c r="J15" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K15" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1327647063314484</v>
+        <v>0.1325492716644895</v>
       </c>
       <c r="M15" t="n">
-        <v>9.648557819455167</v>
+        <v>9.6398587459769</v>
       </c>
       <c r="N15" t="n">
-        <v>151.3719847073852</v>
+        <v>150.8035973476323</v>
       </c>
       <c r="O15" t="n">
-        <v>12.30333226030189</v>
+        <v>12.28021161656558</v>
       </c>
       <c r="P15" t="n">
-        <v>392.8420243729188</v>
+        <v>392.9021727928982</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22696,28 +22840,28 @@
         <v>0.0586</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4309969673023317</v>
+        <v>0.4375728003038639</v>
       </c>
       <c r="J16" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K16" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05137930743049091</v>
+        <v>0.05375177091227945</v>
       </c>
       <c r="M16" t="n">
-        <v>10.69495645142079</v>
+        <v>10.66857024773352</v>
       </c>
       <c r="N16" t="n">
-        <v>171.765499302454</v>
+        <v>170.8987308825847</v>
       </c>
       <c r="O16" t="n">
-        <v>13.10593374401282</v>
+        <v>13.07282413568639</v>
       </c>
       <c r="P16" t="n">
-        <v>385.1656161115023</v>
+        <v>385.0988493389985</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22774,28 +22918,28 @@
         <v>0.0507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4210008298569399</v>
+        <v>0.4299702916117188</v>
       </c>
       <c r="J17" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K17" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04400036397717044</v>
+        <v>0.04665798874002802</v>
       </c>
       <c r="M17" t="n">
-        <v>10.96082418894723</v>
+        <v>10.92901804109301</v>
       </c>
       <c r="N17" t="n">
-        <v>189.8529596586666</v>
+        <v>188.8004701427541</v>
       </c>
       <c r="O17" t="n">
-        <v>13.7787140059828</v>
+        <v>13.74046833782437</v>
       </c>
       <c r="P17" t="n">
-        <v>364.5128251987494</v>
+        <v>364.4222685414085</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -22852,28 +22996,28 @@
         <v>0.0587</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2212729427862371</v>
+        <v>-0.2097595356381973</v>
       </c>
       <c r="J18" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K18" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01056119508261011</v>
+        <v>0.009595760437562162</v>
       </c>
       <c r="M18" t="n">
-        <v>10.58393000686857</v>
+        <v>10.57362836961432</v>
       </c>
       <c r="N18" t="n">
-        <v>219.6542037024038</v>
+        <v>219.1694851533876</v>
       </c>
       <c r="O18" t="n">
-        <v>14.82073559923406</v>
+        <v>14.8043738521218</v>
       </c>
       <c r="P18" t="n">
-        <v>363.6981921716151</v>
+        <v>363.5816429010811</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -22911,7 +23055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S312"/>
+  <dimension ref="A1:S314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48427,6 +48571,196 @@
         </is>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>-36.04316319961502,174.53217966411114</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>-36.0436512387549,174.53284123138616</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>-36.044162903405855,174.53345339410822</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>-36.04459636113433,174.53407414340035</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>-36.04503672291654,174.53474635324736</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>-36.04552028636836,174.53545322122812</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>-36.04596652607903,174.53616770200367</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>-36.04635594887898,174.53688684147207</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>-36.04675855284427,174.53759377768716</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>-36.047111857134105,174.5383823561363</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>-36.04742341401612,174.53917997762804</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>-36.0475928369302,174.53998460639863</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>-36.0477691325429,174.5407374695394</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>-36.0478032527608,174.54148126570985</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>-36.047750490205225,174.54218301749358</t>
+        </is>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>-36.047524918609646,174.54297303215975</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr"/>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>-36.04316332114208,174.53217950015434</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>-36.04370322558015,174.53277117767664</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>-36.044200514666905,174.53340600545334</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>-36.04468539025322,174.5339905678843</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>-36.04509668972307,174.53469746977206</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>-36.04560559604101,174.53537354995123</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>-36.045990091931486,174.53614505034955</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>-36.04640349055056,174.53684782210524</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>-36.04683309995667,174.5375434150111</t>
+        </is>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>-36.04719473677162,174.53832471522853</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>-36.047459683831825,174.53915650095036</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>-36.047831069018095,174.53987948513833</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>-36.0479486198797,174.54070262684633</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>-36.04795680848837,174.54149933125333</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>-36.047877904956735,174.54225546954882</t>
+        </is>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>-36.04763108336323,174.5430642348359</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>-36.04725712159112,174.54383752313905</t>
+        </is>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -40975,7 +40975,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>-36.04501632238722,174.53476298324014</t>
+          <t>-36.04501632238723,174.53476298324014</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">

--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S314"/>
+  <dimension ref="A1:S315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17872,6 +17872,69 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>393.455</v>
+      </c>
+      <c r="C315" t="n">
+        <v>390.895</v>
+      </c>
+      <c r="D315" t="n">
+        <v>384.5415384615384</v>
+      </c>
+      <c r="E315" t="n">
+        <v>394.6015384615384</v>
+      </c>
+      <c r="F315" t="n">
+        <v>388.7357142857143</v>
+      </c>
+      <c r="G315" t="n">
+        <v>385.0157142857143</v>
+      </c>
+      <c r="H315" t="n">
+        <v>382.13</v>
+      </c>
+      <c r="I315" t="n">
+        <v>394.0857142857143</v>
+      </c>
+      <c r="J315" t="n">
+        <v>391.32</v>
+      </c>
+      <c r="K315" t="n">
+        <v>390.835</v>
+      </c>
+      <c r="L315" t="n">
+        <v>395.3064705882353</v>
+      </c>
+      <c r="M315" t="n">
+        <v>411.9866666666667</v>
+      </c>
+      <c r="N315" t="n">
+        <v>408.5257142857143</v>
+      </c>
+      <c r="O315" t="n">
+        <v>403.21</v>
+      </c>
+      <c r="P315" t="n">
+        <v>381.52</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>361.1933333333333</v>
+      </c>
+      <c r="R315" t="n">
+        <v>347.18</v>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17883,7 +17946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B369"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21581,6 +21644,16 @@
       </c>
       <c r="B369" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -21754,28 +21827,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2758890715887417</v>
+        <v>0.2758517335842312</v>
       </c>
       <c r="J2" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K2" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04542282763978422</v>
+        <v>0.04578934255002687</v>
       </c>
       <c r="M2" t="n">
-        <v>7.443312144837528</v>
+        <v>7.413238573814193</v>
       </c>
       <c r="N2" t="n">
-        <v>84.92892570694684</v>
+        <v>84.58369469036653</v>
       </c>
       <c r="O2" t="n">
-        <v>9.215689106461157</v>
+        <v>9.196939419739946</v>
       </c>
       <c r="P2" t="n">
-        <v>386.3887603972531</v>
+        <v>386.3891386081914</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21832,28 +21905,28 @@
         <v>0.0861</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4296111504239478</v>
+        <v>0.423005549162408</v>
       </c>
       <c r="J3" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K3" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1191087017652512</v>
+        <v>0.1164123102263123</v>
       </c>
       <c r="M3" t="n">
-        <v>6.85070568199471</v>
+        <v>6.855163076294699</v>
       </c>
       <c r="N3" t="n">
-        <v>73.92763372439877</v>
+        <v>73.89592630088292</v>
       </c>
       <c r="O3" t="n">
-        <v>8.598118033872225</v>
+        <v>8.59627397776984</v>
       </c>
       <c r="P3" t="n">
-        <v>388.0079012316338</v>
+        <v>388.0738860897907</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21910,28 +21983,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4550462971916054</v>
+        <v>0.4416971126188889</v>
       </c>
       <c r="J4" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K4" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1094393784324251</v>
+        <v>0.1033674131596539</v>
       </c>
       <c r="M4" t="n">
-        <v>7.565056937018118</v>
+        <v>7.596983420325025</v>
       </c>
       <c r="N4" t="n">
-        <v>89.95154755224823</v>
+        <v>90.73474054506173</v>
       </c>
       <c r="O4" t="n">
-        <v>9.484278968495614</v>
+        <v>9.525478494283725</v>
       </c>
       <c r="P4" t="n">
-        <v>389.8425622128738</v>
+        <v>389.9780392894448</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21988,28 +22061,28 @@
         <v>0.0718</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4774551563271225</v>
+        <v>0.4681783587352856</v>
       </c>
       <c r="J5" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K5" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09352525095825359</v>
+        <v>0.09057333404453294</v>
       </c>
       <c r="M5" t="n">
-        <v>8.027718456065516</v>
+        <v>8.038587000966704</v>
       </c>
       <c r="N5" t="n">
-        <v>116.5340995180522</v>
+        <v>116.5959812217764</v>
       </c>
       <c r="O5" t="n">
-        <v>10.7950960865595</v>
+        <v>10.79796190129306</v>
       </c>
       <c r="P5" t="n">
-        <v>393.846523666799</v>
+        <v>393.9414304300297</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22066,28 +22139,28 @@
         <v>0.0765</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4354086103820048</v>
+        <v>0.4306698918044298</v>
       </c>
       <c r="J6" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K6" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08837611598900541</v>
+        <v>0.08719906051587478</v>
       </c>
       <c r="M6" t="n">
-        <v>7.759225358447013</v>
+        <v>7.753083538620527</v>
       </c>
       <c r="N6" t="n">
-        <v>101.8948437381812</v>
+        <v>101.6243481030799</v>
       </c>
       <c r="O6" t="n">
-        <v>10.09429758518051</v>
+        <v>10.08089024357868</v>
       </c>
       <c r="P6" t="n">
-        <v>383.402028140915</v>
+        <v>383.450747363279</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22144,28 +22217,28 @@
         <v>0.0762</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5243919167605479</v>
+        <v>0.5188722707006107</v>
       </c>
       <c r="J7" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K7" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1129114580952351</v>
+        <v>0.1115500358257402</v>
       </c>
       <c r="M7" t="n">
-        <v>8.16195534514598</v>
+        <v>8.157034980211153</v>
       </c>
       <c r="N7" t="n">
-        <v>110.599269721119</v>
+        <v>110.3411590423046</v>
       </c>
       <c r="O7" t="n">
-        <v>10.51661873993343</v>
+        <v>10.50434000983901</v>
       </c>
       <c r="P7" t="n">
-        <v>378.1935321863343</v>
+        <v>378.2496023352425</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22222,28 +22295,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5089812317332663</v>
+        <v>0.4999756532228328</v>
       </c>
       <c r="J8" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K8" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1070209094927297</v>
+        <v>0.1041494503412308</v>
       </c>
       <c r="M8" t="n">
-        <v>8.032115194107881</v>
+        <v>8.045817006900645</v>
       </c>
       <c r="N8" t="n">
-        <v>109.3277738529048</v>
+        <v>109.3407571486062</v>
       </c>
       <c r="O8" t="n">
-        <v>10.45599224621484</v>
+        <v>10.45661308209337</v>
       </c>
       <c r="P8" t="n">
-        <v>379.692914947185</v>
+        <v>379.784524359757</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22300,28 +22373,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5068635664945249</v>
+        <v>0.5047033562223886</v>
       </c>
       <c r="J9" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K9" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1146729522612049</v>
+        <v>0.1147274976544919</v>
       </c>
       <c r="M9" t="n">
-        <v>7.936587211260002</v>
+        <v>7.914509167088452</v>
       </c>
       <c r="N9" t="n">
-        <v>101.1846953228595</v>
+        <v>100.8070947292344</v>
       </c>
       <c r="O9" t="n">
-        <v>10.05906035983776</v>
+        <v>10.04027363816517</v>
       </c>
       <c r="P9" t="n">
-        <v>383.567087123054</v>
+        <v>383.5890493964403</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22378,28 +22451,28 @@
         <v>0.0643</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4855806423315665</v>
+        <v>0.4850207957468801</v>
       </c>
       <c r="J10" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K10" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09581208169894861</v>
+        <v>0.09644834618590847</v>
       </c>
       <c r="M10" t="n">
-        <v>8.509920651552914</v>
+        <v>8.477191509963365</v>
       </c>
       <c r="N10" t="n">
-        <v>116.2913567133034</v>
+        <v>115.8125134642874</v>
       </c>
       <c r="O10" t="n">
-        <v>10.7838470275363</v>
+        <v>10.76162225058506</v>
       </c>
       <c r="P10" t="n">
-        <v>379.4476788128605</v>
+        <v>379.4532705105123</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22456,28 +22529,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4034241959319901</v>
+        <v>0.4018591342362047</v>
       </c>
       <c r="J11" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K11" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08517673975118811</v>
+        <v>0.08531717585220089</v>
       </c>
       <c r="M11" t="n">
-        <v>7.511682524865168</v>
+        <v>7.488979082933781</v>
       </c>
       <c r="N11" t="n">
-        <v>90.57749145709188</v>
+        <v>90.22384972934059</v>
       </c>
       <c r="O11" t="n">
-        <v>9.517220784298948</v>
+        <v>9.49862357025167</v>
       </c>
       <c r="P11" t="n">
-        <v>382.2439623193949</v>
+        <v>382.259557000624</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22534,28 +22607,28 @@
         <v>0.096</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4708667317950559</v>
+        <v>0.4631178625487871</v>
       </c>
       <c r="J12" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K12" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L12" t="n">
-        <v>0.111910360982499</v>
+        <v>0.1093057602755565</v>
       </c>
       <c r="M12" t="n">
-        <v>7.575577557746571</v>
+        <v>7.582739245160906</v>
       </c>
       <c r="N12" t="n">
-        <v>91.49618492218467</v>
+        <v>91.42278244231481</v>
       </c>
       <c r="O12" t="n">
-        <v>9.565363815463826</v>
+        <v>9.561526156546078</v>
       </c>
       <c r="P12" t="n">
-        <v>391.8289811355698</v>
+        <v>391.9058322837876</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22612,28 +22685,28 @@
         <v>0.1016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4406708494293257</v>
+        <v>0.4432552441087317</v>
       </c>
       <c r="J13" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K13" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07040864336699548</v>
+        <v>0.07176244223232142</v>
       </c>
       <c r="M13" t="n">
-        <v>8.908747415712025</v>
+        <v>8.886249965907808</v>
       </c>
       <c r="N13" t="n">
-        <v>132.0426586690604</v>
+        <v>131.5647111658758</v>
       </c>
       <c r="O13" t="n">
-        <v>11.49098162338886</v>
+        <v>11.47016613505994</v>
       </c>
       <c r="P13" t="n">
-        <v>397.4934643062771</v>
+        <v>397.4673316741055</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22690,28 +22763,28 @@
         <v>0.0805</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5933144289127456</v>
+        <v>0.5899445317209869</v>
       </c>
       <c r="J14" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K14" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1248885866328133</v>
+        <v>0.1246668013747834</v>
       </c>
       <c r="M14" t="n">
-        <v>8.971116947729906</v>
+        <v>8.950529779180819</v>
       </c>
       <c r="N14" t="n">
-        <v>124.7373698700293</v>
+        <v>124.2887676509437</v>
       </c>
       <c r="O14" t="n">
-        <v>11.16858853526395</v>
+        <v>11.14848723598604</v>
       </c>
       <c r="P14" t="n">
-        <v>397.0490196163714</v>
+        <v>397.0831628487147</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22762,28 +22835,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.6717331444688566</v>
+        <v>0.665430059883461</v>
       </c>
       <c r="J15" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K15" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1325492716644895</v>
+        <v>0.1313826507654934</v>
       </c>
       <c r="M15" t="n">
-        <v>9.6398587459769</v>
+        <v>9.629403155600782</v>
       </c>
       <c r="N15" t="n">
-        <v>150.8035973476323</v>
+        <v>150.3752785330327</v>
       </c>
       <c r="O15" t="n">
-        <v>12.28021161656558</v>
+        <v>12.26275982530167</v>
       </c>
       <c r="P15" t="n">
-        <v>392.9021727928982</v>
+        <v>392.9657513418384</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22840,28 +22913,28 @@
         <v>0.0586</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4375728003038639</v>
+        <v>0.4237156686987109</v>
       </c>
       <c r="J16" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K16" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05375177091227945</v>
+        <v>0.0507994669078321</v>
       </c>
       <c r="M16" t="n">
-        <v>10.66857024773352</v>
+        <v>10.68797467661518</v>
       </c>
       <c r="N16" t="n">
-        <v>170.8987308825847</v>
+        <v>171.1017202663251</v>
       </c>
       <c r="O16" t="n">
-        <v>13.07282413568639</v>
+        <v>13.08058562398202</v>
       </c>
       <c r="P16" t="n">
-        <v>385.0988493389985</v>
+        <v>385.2398808206221</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22918,28 +22991,28 @@
         <v>0.0507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4299702916117188</v>
+        <v>0.415932338212791</v>
       </c>
       <c r="J17" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K17" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04665798874002802</v>
+        <v>0.04405727571011808</v>
       </c>
       <c r="M17" t="n">
-        <v>10.92901804109301</v>
+        <v>10.94039614914698</v>
       </c>
       <c r="N17" t="n">
-        <v>188.8004701427541</v>
+        <v>188.8576632981369</v>
       </c>
       <c r="O17" t="n">
-        <v>13.74046833782437</v>
+        <v>13.74254937404763</v>
       </c>
       <c r="P17" t="n">
-        <v>364.4222685414085</v>
+        <v>364.56427951619</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -22996,28 +23069,28 @@
         <v>0.0587</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2097595356381973</v>
+        <v>-0.2213927470300578</v>
       </c>
       <c r="J18" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K18" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009595760437562162</v>
+        <v>0.01078090351826</v>
       </c>
       <c r="M18" t="n">
-        <v>10.57362836961432</v>
+        <v>10.58568341573421</v>
       </c>
       <c r="N18" t="n">
-        <v>219.1694851533876</v>
+        <v>218.7156385560776</v>
       </c>
       <c r="O18" t="n">
-        <v>14.8043738521218</v>
+        <v>14.78903778330685</v>
       </c>
       <c r="P18" t="n">
-        <v>363.5816429010811</v>
+        <v>363.6994993469058</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23055,7 +23128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S314"/>
+  <dimension ref="A1:S315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48761,6 +48834,103 @@
         </is>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>-36.04316180205398,174.53218154961425</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>-36.04371471739939,174.53275569210734</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>-36.044287503663696,174.53329640260617</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>-36.044700498620465,174.53397638497754</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>-36.04511120630439,174.5346856361964</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>-36.045580613598446,174.5353968812448</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>-36.04605771051081,174.53608005482525</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>-36.046408601520625,174.53684362732267</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>-36.046782392117336,174.53757767231855</t>
+        </is>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>-36.04713273401493,174.53836783675214</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>-36.047474031246104,174.5391472141687</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>-36.04762016932427,174.53997254585764</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>-36.04782522631179,174.54072658044163</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>-36.04791421726286,174.54149432046725</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>-36.04796342092966,174.5423040967851</t>
+        </is>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>-36.04771610546339,174.54313727477478</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>-36.047417471942815,174.54397232565822</t>
+        </is>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S315"/>
+  <dimension ref="A1:S318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17935,6 +17935,195 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>383.545</v>
+      </c>
+      <c r="C316" t="n">
+        <v>387.925</v>
+      </c>
+      <c r="D316" t="n">
+        <v>384.1176923076923</v>
+      </c>
+      <c r="E316" t="n">
+        <v>387.3576923076923</v>
+      </c>
+      <c r="F316" t="n">
+        <v>384.6885714285714</v>
+      </c>
+      <c r="G316" t="n">
+        <v>375.7785714285715</v>
+      </c>
+      <c r="H316" t="n">
+        <v>386.3333333333334</v>
+      </c>
+      <c r="I316" t="n">
+        <v>389.2285714285715</v>
+      </c>
+      <c r="J316" t="n">
+        <v>384.7966666666667</v>
+      </c>
+      <c r="K316" t="n">
+        <v>384.795</v>
+      </c>
+      <c r="L316" t="n">
+        <v>398.8958823529412</v>
+      </c>
+      <c r="M316" t="n">
+        <v>403.3177777777778</v>
+      </c>
+      <c r="N316" t="n">
+        <v>406.5085714285714</v>
+      </c>
+      <c r="O316" t="n">
+        <v>404.9666666666667</v>
+      </c>
+      <c r="P316" t="n">
+        <v>391.43</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>379.3455555555556</v>
+      </c>
+      <c r="R316" t="n">
+        <v>364.7</v>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>374.3</v>
+      </c>
+      <c r="C317" t="n">
+        <v>378.4</v>
+      </c>
+      <c r="D317" t="n">
+        <v>375.8807692307692</v>
+      </c>
+      <c r="E317" t="n">
+        <v>383.8707692307692</v>
+      </c>
+      <c r="F317" t="n">
+        <v>376.1028571428572</v>
+      </c>
+      <c r="G317" t="n">
+        <v>370.3028571428572</v>
+      </c>
+      <c r="H317" t="n">
+        <v>385.0966666666666</v>
+      </c>
+      <c r="I317" t="n">
+        <v>389.7828571428572</v>
+      </c>
+      <c r="J317" t="n">
+        <v>381.4733333333333</v>
+      </c>
+      <c r="K317" t="n">
+        <v>391.42</v>
+      </c>
+      <c r="L317" t="n">
+        <v>400.5111764705882</v>
+      </c>
+      <c r="M317" t="n">
+        <v>398.7288888888889</v>
+      </c>
+      <c r="N317" t="n">
+        <v>405.6928571428572</v>
+      </c>
+      <c r="O317" t="n">
+        <v>410.6133333333333</v>
+      </c>
+      <c r="P317" t="n">
+        <v>395.05</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>381.9277777777777</v>
+      </c>
+      <c r="R317" t="n">
+        <v>362.63</v>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>373.025</v>
+      </c>
+      <c r="C318" t="n">
+        <v>379.295</v>
+      </c>
+      <c r="D318" t="n">
+        <v>376.0938461538461</v>
+      </c>
+      <c r="E318" t="n">
+        <v>374.2638461538461</v>
+      </c>
+      <c r="F318" t="n">
+        <v>375.1542857142857</v>
+      </c>
+      <c r="G318" t="n">
+        <v>371.6242857142857</v>
+      </c>
+      <c r="H318" t="n">
+        <v>378.41</v>
+      </c>
+      <c r="I318" t="n">
+        <v>383.2942857142857</v>
+      </c>
+      <c r="J318" t="n">
+        <v>377.3</v>
+      </c>
+      <c r="K318" t="n">
+        <v>379.655</v>
+      </c>
+      <c r="L318" t="n">
+        <v>392.02</v>
+      </c>
+      <c r="M318" t="n">
+        <v>401.9833333333333</v>
+      </c>
+      <c r="N318" t="n">
+        <v>390.9242857142857</v>
+      </c>
+      <c r="O318" t="n">
+        <v>391.58</v>
+      </c>
+      <c r="P318" t="n">
+        <v>378.26</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>357.6766666666667</v>
+      </c>
+      <c r="R318" t="n">
+        <v>354.96</v>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17946,7 +18135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B370"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21654,6 +21843,36 @@
       </c>
       <c r="B370" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -21827,28 +22046,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2758517335842312</v>
+        <v>0.2363647202163557</v>
       </c>
       <c r="J2" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K2" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04578934255002687</v>
+        <v>0.03355938759569066</v>
       </c>
       <c r="M2" t="n">
-        <v>7.413238573814193</v>
+        <v>7.534803342336737</v>
       </c>
       <c r="N2" t="n">
-        <v>84.58369469036653</v>
+        <v>87.02243659337154</v>
       </c>
       <c r="O2" t="n">
-        <v>9.196939419739946</v>
+        <v>9.328581703205023</v>
       </c>
       <c r="P2" t="n">
-        <v>386.3891386081914</v>
+        <v>386.7924149442916</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21905,28 +22124,28 @@
         <v>0.0861</v>
       </c>
       <c r="I3" t="n">
-        <v>0.423005549162408</v>
+        <v>0.3823224676819788</v>
       </c>
       <c r="J3" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K3" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1164123102263123</v>
+        <v>0.09516865547632491</v>
       </c>
       <c r="M3" t="n">
-        <v>6.855163076294699</v>
+        <v>6.977305797957974</v>
       </c>
       <c r="N3" t="n">
-        <v>73.89592630088292</v>
+        <v>76.67290211443598</v>
       </c>
       <c r="O3" t="n">
-        <v>8.59627397776984</v>
+        <v>8.756306419628997</v>
       </c>
       <c r="P3" t="n">
-        <v>388.0738860897907</v>
+        <v>388.4836768859977</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21983,28 +22202,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4416971126188889</v>
+        <v>0.3892850243240643</v>
       </c>
       <c r="J4" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K4" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1033674131596539</v>
+        <v>0.07919035001963659</v>
       </c>
       <c r="M4" t="n">
-        <v>7.596983420325025</v>
+        <v>7.76191117422779</v>
       </c>
       <c r="N4" t="n">
-        <v>90.73474054506173</v>
+        <v>95.72600780950079</v>
       </c>
       <c r="O4" t="n">
-        <v>9.525478494283725</v>
+        <v>9.783966874918413</v>
       </c>
       <c r="P4" t="n">
-        <v>389.9780392894448</v>
+        <v>390.5143736473231</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22061,28 +22280,28 @@
         <v>0.0718</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4681783587352856</v>
+        <v>0.4109314979478967</v>
       </c>
       <c r="J5" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K5" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09057333404453294</v>
+        <v>0.06898541128103797</v>
       </c>
       <c r="M5" t="n">
-        <v>8.038587000966704</v>
+        <v>8.21364366375982</v>
       </c>
       <c r="N5" t="n">
-        <v>116.5959812217764</v>
+        <v>122.3688591538267</v>
       </c>
       <c r="O5" t="n">
-        <v>10.79796190129306</v>
+        <v>11.06204588463756</v>
       </c>
       <c r="P5" t="n">
-        <v>393.9414304300297</v>
+        <v>394.5319411574086</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22139,28 +22358,28 @@
         <v>0.0765</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4306698918044298</v>
+        <v>0.392893432110165</v>
       </c>
       <c r="J6" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K6" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08719906051587478</v>
+        <v>0.07330042899399514</v>
       </c>
       <c r="M6" t="n">
-        <v>7.753083538620527</v>
+        <v>7.861493520994028</v>
       </c>
       <c r="N6" t="n">
-        <v>101.6243481030799</v>
+        <v>103.5545125015519</v>
       </c>
       <c r="O6" t="n">
-        <v>10.08089024357868</v>
+        <v>10.17617376529862</v>
       </c>
       <c r="P6" t="n">
-        <v>383.450747363279</v>
+        <v>383.8422848618709</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22217,28 +22436,28 @@
         <v>0.0762</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5188722707006107</v>
+        <v>0.4725828394463965</v>
       </c>
       <c r="J7" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K7" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1115500358257402</v>
+        <v>0.09347268736890924</v>
       </c>
       <c r="M7" t="n">
-        <v>8.157034980211153</v>
+        <v>8.287070856811736</v>
       </c>
       <c r="N7" t="n">
-        <v>110.3411590423046</v>
+        <v>113.201009056118</v>
       </c>
       <c r="O7" t="n">
-        <v>10.50434000983901</v>
+        <v>10.63959628257191</v>
       </c>
       <c r="P7" t="n">
-        <v>378.2496023352425</v>
+        <v>378.7233127228469</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22295,28 +22514,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4999756532228328</v>
+        <v>0.4765497891134827</v>
       </c>
       <c r="J8" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K8" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1041494503412308</v>
+        <v>0.09704338833762016</v>
       </c>
       <c r="M8" t="n">
-        <v>8.045817006900645</v>
+        <v>8.066741353335075</v>
       </c>
       <c r="N8" t="n">
-        <v>109.3407571486062</v>
+        <v>109.216073922797</v>
       </c>
       <c r="O8" t="n">
-        <v>10.45661308209337</v>
+        <v>10.45064944980918</v>
       </c>
       <c r="P8" t="n">
-        <v>379.784524359757</v>
+        <v>380.0245917745137</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22373,28 +22592,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5047033562223886</v>
+        <v>0.4817147819524449</v>
       </c>
       <c r="J9" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K9" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1147274976544919</v>
+        <v>0.1072277886003528</v>
       </c>
       <c r="M9" t="n">
-        <v>7.914509167088452</v>
+        <v>7.921642154823972</v>
       </c>
       <c r="N9" t="n">
-        <v>100.8070947292344</v>
+        <v>100.6906615715297</v>
       </c>
       <c r="O9" t="n">
-        <v>10.04027363816517</v>
+        <v>10.03447365692539</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5890493964403</v>
+        <v>383.8245220339983</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22451,28 +22670,28 @@
         <v>0.0643</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4850207957468801</v>
+        <v>0.4574905207118765</v>
       </c>
       <c r="J10" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K10" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09644834618590847</v>
+        <v>0.0879915517176032</v>
       </c>
       <c r="M10" t="n">
-        <v>8.477191509963365</v>
+        <v>8.490217186988998</v>
       </c>
       <c r="N10" t="n">
-        <v>115.8125134642874</v>
+        <v>115.8940941796166</v>
       </c>
       <c r="O10" t="n">
-        <v>10.76162225058506</v>
+        <v>10.76541193729328</v>
       </c>
       <c r="P10" t="n">
-        <v>379.4532705105123</v>
+        <v>379.7303539577633</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22529,28 +22748,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4018591342362047</v>
+        <v>0.383129127065695</v>
       </c>
       <c r="J11" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K11" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08531717585220089</v>
+        <v>0.07952815798443214</v>
       </c>
       <c r="M11" t="n">
-        <v>7.488979082933781</v>
+        <v>7.48897542249462</v>
       </c>
       <c r="N11" t="n">
-        <v>90.22384972934059</v>
+        <v>90.05042136369588</v>
       </c>
       <c r="O11" t="n">
-        <v>9.49862357025167</v>
+        <v>9.489490047610349</v>
       </c>
       <c r="P11" t="n">
-        <v>382.259557000624</v>
+        <v>382.4475859774461</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22607,28 +22826,28 @@
         <v>0.096</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4631178625487871</v>
+        <v>0.4453850905229347</v>
       </c>
       <c r="J12" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K12" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1093057602755565</v>
+        <v>0.1039858827838684</v>
       </c>
       <c r="M12" t="n">
-        <v>7.582739245160906</v>
+        <v>7.575204599932711</v>
       </c>
       <c r="N12" t="n">
-        <v>91.42278244231481</v>
+        <v>91.00469713325893</v>
       </c>
       <c r="O12" t="n">
-        <v>9.561526156546078</v>
+        <v>9.539638207671134</v>
       </c>
       <c r="P12" t="n">
-        <v>391.9058322837876</v>
+        <v>392.083035797941</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22685,28 +22904,28 @@
         <v>0.1016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4432552441087317</v>
+        <v>0.4248029045989931</v>
       </c>
       <c r="J13" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K13" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07176244223232142</v>
+        <v>0.06767034404688488</v>
       </c>
       <c r="M13" t="n">
-        <v>8.886249965907808</v>
+        <v>8.867814358308941</v>
       </c>
       <c r="N13" t="n">
-        <v>131.5647111658758</v>
+        <v>130.7322909225568</v>
       </c>
       <c r="O13" t="n">
-        <v>11.47016613505994</v>
+        <v>11.4338222359173</v>
       </c>
       <c r="P13" t="n">
-        <v>397.4673316741055</v>
+        <v>397.6553050190708</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22763,28 +22982,28 @@
         <v>0.0805</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5899445317209869</v>
+        <v>0.560625438144879</v>
       </c>
       <c r="J14" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K14" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1246668013747834</v>
+        <v>0.1152117634587396</v>
       </c>
       <c r="M14" t="n">
-        <v>8.950529779180819</v>
+        <v>8.979145314030236</v>
       </c>
       <c r="N14" t="n">
-        <v>124.2887676509437</v>
+        <v>124.9006841326532</v>
       </c>
       <c r="O14" t="n">
-        <v>11.14848723598604</v>
+        <v>11.17589746430474</v>
       </c>
       <c r="P14" t="n">
-        <v>397.0831628487147</v>
+        <v>397.3824527071025</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22835,28 +23054,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.665430059883461</v>
+        <v>0.644785233762454</v>
       </c>
       <c r="J15" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K15" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1313826507654934</v>
+        <v>0.1265156465206901</v>
       </c>
       <c r="M15" t="n">
-        <v>9.629403155600782</v>
+        <v>9.611740496653944</v>
       </c>
       <c r="N15" t="n">
-        <v>150.3752785330327</v>
+        <v>150.0346891971983</v>
       </c>
       <c r="O15" t="n">
-        <v>12.26275982530167</v>
+        <v>12.24886481259379</v>
       </c>
       <c r="P15" t="n">
-        <v>392.9657513418384</v>
+        <v>393.1756039129731</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22913,28 +23132,28 @@
         <v>0.0586</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4237156686987109</v>
+        <v>0.401949003897725</v>
       </c>
       <c r="J16" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K16" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0507994669078321</v>
+        <v>0.04692717775346045</v>
       </c>
       <c r="M16" t="n">
-        <v>10.68797467661518</v>
+        <v>10.65094317230625</v>
       </c>
       <c r="N16" t="n">
-        <v>171.1017202663251</v>
+        <v>170.3568583171013</v>
       </c>
       <c r="O16" t="n">
-        <v>13.08058562398202</v>
+        <v>13.05208252797619</v>
       </c>
       <c r="P16" t="n">
-        <v>385.2398808206221</v>
+        <v>385.4631246735587</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22991,28 +23210,28 @@
         <v>0.0507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.415932338212791</v>
+        <v>0.4091096673149545</v>
       </c>
       <c r="J17" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K17" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04405727571011808</v>
+        <v>0.04368480097470717</v>
       </c>
       <c r="M17" t="n">
-        <v>10.94039614914698</v>
+        <v>10.9192837135088</v>
       </c>
       <c r="N17" t="n">
-        <v>188.8576632981369</v>
+        <v>188.0051299717499</v>
       </c>
       <c r="O17" t="n">
-        <v>13.74254937404763</v>
+        <v>13.71149627034737</v>
       </c>
       <c r="P17" t="n">
-        <v>364.56427951619</v>
+        <v>364.6339608533618</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23069,28 +23288,28 @@
         <v>0.0587</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2213927470300578</v>
+        <v>-0.2127921071385039</v>
       </c>
       <c r="J18" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K18" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01078090351826</v>
+        <v>0.01031412751685679</v>
       </c>
       <c r="M18" t="n">
-        <v>10.58568341573421</v>
+        <v>10.50028451756875</v>
       </c>
       <c r="N18" t="n">
-        <v>218.7156385560776</v>
+        <v>216.1217399737249</v>
       </c>
       <c r="O18" t="n">
-        <v>14.78903778330685</v>
+        <v>14.70107955130251</v>
       </c>
       <c r="P18" t="n">
-        <v>363.6994993469058</v>
+        <v>363.611891410155</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -23128,7 +23347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S315"/>
+  <dimension ref="A1:S318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48931,6 +49150,297 @@
         </is>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>-36.043222018680204,174.53210030896304</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>-36.04373277596862,174.53273135763214</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>-36.04429017390939,174.53329303819186</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>-36.04475242397129,174.5339276402528</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>-36.04514162455149,174.53466083994</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>-36.04564695300324,174.53533492632792</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>-36.04602784465553,174.53610876214398</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>-36.04644503191122,174.53681372738956</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>-36.0468339428921,174.5375428455386</t>
+        </is>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>-36.047180138655534,174.53833486789702</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>-36.04744539273648,174.53916575127423</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>-36.04769372824877,174.53994008761111</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>-36.04784318649333,174.54072309395204</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>-36.04789845492011,174.54149246605573</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>-36.04788232396452,174.54225798234117</t>
+        </is>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>-36.04758191492292,174.5430219957939</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>-36.04728704771417,174.54386268122735</t>
+        </is>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>-36.04327819448634,174.53202451976733</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>-36.04379069104514,174.53265331517443</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>-36.044342066796794,174.5332276549367</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>-36.04477741893279,174.5339041762993</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>-36.04520615459734,174.53460823645327</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>-36.04568627852851,174.53529819983376</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>-36.04603663151767,174.53610031613889</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>-36.04644087456113,174.53681713950095</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>-36.046860205597945,174.53752510290542</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>-36.04712814267097,174.53837102992563</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>-36.04743250493694,174.5391740932712</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>-36.04773266676868,174.53992290576775</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>-36.047850449427905,174.54072168404682</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>-36.04784778810999,174.54148650520173</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>-36.047852700244455,174.54224113733136</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>-36.0475628258013,174.5430055969553</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>-36.04730245743195,174.5438756357729</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>-36.04328594182217,174.53201406749014</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>-36.04378524915813,174.53266064830262</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>-36.044340724405565,174.53322934630512</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>-36.04484628325501,174.5338395300031</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>-36.04521328403869,174.53460242468182</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>-36.045676788284005,174.53530706287052</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>-36.046084142142576,174.53605464848874</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>-36.04648954126719,174.53677719666962</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>-36.04689318544173,174.53750282227045</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>-36.04722047968408,174.53830681158905</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>-36.04750025270446,174.5391302415566</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>-36.04770505153289,174.53993509114937</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>-36.04798194542747,174.54069615756143</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>-36.048018571746184,174.54150659760796</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>-36.04799009863504,174.54231926664357</t>
+        </is>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>-36.04774210245352,174.54315960805027</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>-36.04735955526147,174.5439236364765</t>
+        </is>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S318"/>
+  <dimension ref="A1:S319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18124,6 +18124,69 @@
         </is>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="C319" t="n">
+        <v>381.31</v>
+      </c>
+      <c r="D319" t="n">
+        <v>375.2976923076923</v>
+      </c>
+      <c r="E319" t="n">
+        <v>382.2976923076923</v>
+      </c>
+      <c r="F319" t="n">
+        <v>379.7628571428572</v>
+      </c>
+      <c r="G319" t="n">
+        <v>380.3728571428572</v>
+      </c>
+      <c r="H319" t="n">
+        <v>378.5866666666667</v>
+      </c>
+      <c r="I319" t="n">
+        <v>383.9628571428572</v>
+      </c>
+      <c r="J319" t="n">
+        <v>374.6233333333333</v>
+      </c>
+      <c r="K319" t="n">
+        <v>381.79</v>
+      </c>
+      <c r="L319" t="n">
+        <v>392.3688235294118</v>
+      </c>
+      <c r="M319" t="n">
+        <v>395.3155555555555</v>
+      </c>
+      <c r="N319" t="n">
+        <v>400.3628571428572</v>
+      </c>
+      <c r="O319" t="n">
+        <v>398.8833333333333</v>
+      </c>
+      <c r="P319" t="n">
+        <v>377.73</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>370.6511111111111</v>
+      </c>
+      <c r="R319" t="n">
+        <v>356.68</v>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18135,7 +18198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21873,6 +21936,16 @@
       </c>
       <c r="B373" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.76</v>
       </c>
     </row>
   </sheetData>
@@ -23347,7 +23420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S318"/>
+  <dimension ref="A1:S319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49441,6 +49514,103 @@
         </is>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>-36.04323383717431,174.53208436413854</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>-36.04377299731039,174.5326771580792</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>-36.04434574019937,174.53322302657077</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>-36.04478869506116,174.5338935908577</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-36.04517864611788,174.5346306607786</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>-36.04561395772,174.5353657409113</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>-36.04608288687703,174.53605585506244</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>-36.04648452673267,174.53678131231365</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>-36.0469143378475,174.53748853204527</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>-36.04720372324592,174.53831846533132</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>-36.0474974695786,174.53913204301745</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>-36.0477616302377,174.5399101254611</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>-36.04789790653584,174.54071247150813</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>-36.04795303988278,174.54149888788294</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>-36.04799443580781,174.5423217329099</t>
+        </is>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>-36.04764618873271,174.54307721139153</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>-36.04734675105646,174.54391287229694</t>
+        </is>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -22119,28 +22119,28 @@
         <v>0.0921</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2363647202163557</v>
+        <v>0.2273396676671764</v>
       </c>
       <c r="J2" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K2" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03355938759569066</v>
+        <v>0.03120752485209399</v>
       </c>
       <c r="M2" t="n">
-        <v>7.534803342336737</v>
+        <v>7.553836465504014</v>
       </c>
       <c r="N2" t="n">
-        <v>87.02243659337154</v>
+        <v>87.18436758086027</v>
       </c>
       <c r="O2" t="n">
-        <v>9.328581703205023</v>
+        <v>9.337256962345005</v>
       </c>
       <c r="P2" t="n">
-        <v>386.7924149442916</v>
+        <v>386.8852138915902</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22197,28 +22197,28 @@
         <v>0.0861</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3823224676819788</v>
+        <v>0.3687653661810263</v>
       </c>
       <c r="J3" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K3" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09516865547632491</v>
+        <v>0.08859780670383788</v>
       </c>
       <c r="M3" t="n">
-        <v>6.977305797957974</v>
+        <v>7.020141542051896</v>
       </c>
       <c r="N3" t="n">
-        <v>76.67290211443598</v>
+        <v>77.53549080007093</v>
       </c>
       <c r="O3" t="n">
-        <v>8.756306419628997</v>
+        <v>8.805423942097901</v>
       </c>
       <c r="P3" t="n">
-        <v>388.4836768859977</v>
+        <v>388.6211883114382</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22275,28 +22275,28 @@
         <v>0.0701</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3892850243240643</v>
+        <v>0.3697532191340311</v>
       </c>
       <c r="J4" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K4" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07919035001963659</v>
+        <v>0.07083864074117019</v>
       </c>
       <c r="M4" t="n">
-        <v>7.76191117422779</v>
+        <v>7.830227028979228</v>
       </c>
       <c r="N4" t="n">
-        <v>95.72600780950079</v>
+        <v>97.84598467443398</v>
       </c>
       <c r="O4" t="n">
-        <v>9.783966874918413</v>
+        <v>9.891712929236977</v>
       </c>
       <c r="P4" t="n">
-        <v>390.5143736473231</v>
+        <v>390.715646968867</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22353,28 +22353,28 @@
         <v>0.0718</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4109314979478967</v>
+        <v>0.3928423928784569</v>
       </c>
       <c r="J5" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K5" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06898541128103797</v>
+        <v>0.06292468722944222</v>
       </c>
       <c r="M5" t="n">
-        <v>8.21364366375982</v>
+        <v>8.272010630583731</v>
       </c>
       <c r="N5" t="n">
-        <v>122.3688591538267</v>
+        <v>123.9560929902409</v>
       </c>
       <c r="O5" t="n">
-        <v>11.06204588463756</v>
+        <v>11.13355706817192</v>
       </c>
       <c r="P5" t="n">
-        <v>394.5319411574086</v>
+        <v>394.7198166670967</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22431,28 +22431,28 @@
         <v>0.0765</v>
       </c>
       <c r="I6" t="n">
-        <v>0.392893432110165</v>
+        <v>0.3815785737394404</v>
       </c>
       <c r="J6" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K6" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07330042899399514</v>
+        <v>0.06947882061833011</v>
       </c>
       <c r="M6" t="n">
-        <v>7.861493520994028</v>
+        <v>7.893547602833613</v>
       </c>
       <c r="N6" t="n">
-        <v>103.5545125015519</v>
+        <v>103.9460738845751</v>
       </c>
       <c r="O6" t="n">
-        <v>10.17617376529862</v>
+        <v>10.19539473902679</v>
       </c>
       <c r="P6" t="n">
-        <v>383.8422848618709</v>
+        <v>383.960346794312</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22509,28 +22509,28 @@
         <v>0.0762</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4725828394463965</v>
+        <v>0.4639617949270482</v>
       </c>
       <c r="J7" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K7" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09347268736890924</v>
+        <v>0.0908248989747461</v>
       </c>
       <c r="M7" t="n">
-        <v>8.287070856811736</v>
+        <v>8.299352139952388</v>
       </c>
       <c r="N7" t="n">
-        <v>113.201009056118</v>
+        <v>113.1994415134825</v>
       </c>
       <c r="O7" t="n">
-        <v>10.63959628257191</v>
+        <v>10.63952261680394</v>
       </c>
       <c r="P7" t="n">
-        <v>378.7233127228469</v>
+        <v>378.8120999694978</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22587,28 +22587,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4765497891134827</v>
+        <v>0.4651168066529943</v>
       </c>
       <c r="J8" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K8" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09704338833762016</v>
+        <v>0.09308482982235944</v>
       </c>
       <c r="M8" t="n">
-        <v>8.066741353335075</v>
+        <v>8.091317718808403</v>
       </c>
       <c r="N8" t="n">
-        <v>109.216073922797</v>
+        <v>109.5273222081635</v>
       </c>
       <c r="O8" t="n">
-        <v>10.45064944980918</v>
+        <v>10.46553019240609</v>
       </c>
       <c r="P8" t="n">
-        <v>380.0245917745137</v>
+        <v>380.1424627731843</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22665,28 +22665,28 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4817147819524449</v>
+        <v>0.4714113264939245</v>
       </c>
       <c r="J9" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K9" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1072277886003528</v>
+        <v>0.1034631215583078</v>
       </c>
       <c r="M9" t="n">
-        <v>7.921642154823972</v>
+        <v>7.935981572880096</v>
       </c>
       <c r="N9" t="n">
-        <v>100.6906615715297</v>
+        <v>100.8945700309925</v>
       </c>
       <c r="O9" t="n">
-        <v>10.03447365692539</v>
+        <v>10.04462891454893</v>
       </c>
       <c r="P9" t="n">
-        <v>383.8245220339983</v>
+        <v>383.9307158384752</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -22743,28 +22743,28 @@
         <v>0.0643</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4574905207118765</v>
+        <v>0.4430756233900959</v>
       </c>
       <c r="J10" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K10" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0879915517176032</v>
+        <v>0.08294705093780319</v>
       </c>
       <c r="M10" t="n">
-        <v>8.490217186988998</v>
+        <v>8.517249114204596</v>
       </c>
       <c r="N10" t="n">
-        <v>115.8940941796166</v>
+        <v>116.5889045135781</v>
       </c>
       <c r="O10" t="n">
-        <v>10.76541193729328</v>
+        <v>10.79763420910239</v>
       </c>
       <c r="P10" t="n">
-        <v>379.7303539577633</v>
+        <v>379.8763549589258</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22821,28 +22821,28 @@
         <v>0.09030000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.383129127065695</v>
+        <v>0.3741384979581245</v>
       </c>
       <c r="J11" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K11" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07952815798443214</v>
+        <v>0.07644668739501448</v>
       </c>
       <c r="M11" t="n">
-        <v>7.48897542249462</v>
+        <v>7.502676892729057</v>
       </c>
       <c r="N11" t="n">
-        <v>90.05042136369588</v>
+        <v>90.13830593410708</v>
       </c>
       <c r="O11" t="n">
-        <v>9.489490047610349</v>
+        <v>9.494119544966088</v>
       </c>
       <c r="P11" t="n">
-        <v>382.4475859774461</v>
+        <v>382.5383998796943</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22899,28 +22899,28 @@
         <v>0.096</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4453850905229347</v>
+        <v>0.4355133288328398</v>
       </c>
       <c r="J12" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K12" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1039858827838684</v>
+        <v>0.1002612973075037</v>
       </c>
       <c r="M12" t="n">
-        <v>7.575204599932711</v>
+        <v>7.591360254096931</v>
       </c>
       <c r="N12" t="n">
-        <v>91.00469713325893</v>
+        <v>91.15221788008095</v>
       </c>
       <c r="O12" t="n">
-        <v>9.539638207671134</v>
+        <v>9.54736706532649</v>
       </c>
       <c r="P12" t="n">
-        <v>392.083035797941</v>
+        <v>392.1822848419699</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22977,28 +22977,28 @@
         <v>0.1016</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4248029045989931</v>
+        <v>0.4139646898354416</v>
       </c>
       <c r="J13" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K13" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06767034404688488</v>
+        <v>0.06470952732222712</v>
       </c>
       <c r="M13" t="n">
-        <v>8.867814358308941</v>
+        <v>8.882963464559964</v>
       </c>
       <c r="N13" t="n">
-        <v>130.7322909225568</v>
+        <v>130.9143669725959</v>
       </c>
       <c r="O13" t="n">
-        <v>11.4338222359173</v>
+        <v>11.44178163454433</v>
       </c>
       <c r="P13" t="n">
-        <v>397.6553050190708</v>
+        <v>397.7664222872853</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -23055,28 +23055,28 @@
         <v>0.0805</v>
       </c>
       <c r="I14" t="n">
-        <v>0.560625438144879</v>
+        <v>0.5506001501676449</v>
       </c>
       <c r="J14" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K14" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1152117634587396</v>
+        <v>0.1121211473040687</v>
       </c>
       <c r="M14" t="n">
-        <v>8.979145314030236</v>
+        <v>8.991399296060692</v>
       </c>
       <c r="N14" t="n">
-        <v>124.9006841326532</v>
+        <v>124.9371715270315</v>
       </c>
       <c r="O14" t="n">
-        <v>11.17589746430474</v>
+        <v>11.17752975961288</v>
       </c>
       <c r="P14" t="n">
-        <v>397.3824527071025</v>
+        <v>397.4853875367679</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -23127,28 +23127,28 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.644785233762454</v>
+        <v>0.6350451092819347</v>
       </c>
       <c r="J15" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K15" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1265156465206901</v>
+        <v>0.1238957741766867</v>
       </c>
       <c r="M15" t="n">
-        <v>9.611740496653944</v>
+        <v>9.618530320084858</v>
       </c>
       <c r="N15" t="n">
-        <v>150.0346891971983</v>
+        <v>149.9196318369527</v>
       </c>
       <c r="O15" t="n">
-        <v>12.24886481259379</v>
+        <v>12.24416725779882</v>
       </c>
       <c r="P15" t="n">
-        <v>393.1756039129731</v>
+        <v>393.2751871548248</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -23205,28 +23205,28 @@
         <v>0.0586</v>
       </c>
       <c r="I16" t="n">
-        <v>0.401949003897725</v>
+        <v>0.3854257197668101</v>
       </c>
       <c r="J16" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K16" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04692717775346045</v>
+        <v>0.04339161876727393</v>
       </c>
       <c r="M16" t="n">
-        <v>10.65094317230625</v>
+        <v>10.68248032837367</v>
       </c>
       <c r="N16" t="n">
-        <v>170.3568583171013</v>
+        <v>171.0283126392282</v>
       </c>
       <c r="O16" t="n">
-        <v>13.05208252797619</v>
+        <v>13.07777934663329</v>
       </c>
       <c r="P16" t="n">
-        <v>385.4631246735587</v>
+        <v>385.6335829538397</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -23283,28 +23283,28 @@
         <v>0.0507</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4091096673149545</v>
+        <v>0.4046795999156614</v>
       </c>
       <c r="J17" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K17" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04368480097470717</v>
+        <v>0.04320892343441052</v>
       </c>
       <c r="M17" t="n">
-        <v>10.9192837135088</v>
+        <v>10.8910177828454</v>
       </c>
       <c r="N17" t="n">
-        <v>188.0051299717499</v>
+        <v>187.2808671587954</v>
       </c>
       <c r="O17" t="n">
-        <v>13.71149627034737</v>
+        <v>13.68505999836301</v>
       </c>
       <c r="P17" t="n">
-        <v>364.6339608533618</v>
+        <v>364.6793606833371</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -23361,28 +23361,28 @@
         <v>0.0587</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2127921071385039</v>
+        <v>-0.2141952366891905</v>
       </c>
       <c r="J18" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K18" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01031412751685679</v>
+        <v>0.01057191821947923</v>
       </c>
       <c r="M18" t="n">
-        <v>10.50028451756875</v>
+        <v>10.46091117043126</v>
       </c>
       <c r="N18" t="n">
-        <v>216.1217399737249</v>
+        <v>215.1694813159803</v>
       </c>
       <c r="O18" t="n">
-        <v>14.70107955130251</v>
+        <v>14.66865642504385</v>
       </c>
       <c r="P18" t="n">
-        <v>363.611891410155</v>
+        <v>363.6262789571772</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">

--- a/data/nzd0109/nzd0109.xlsx
+++ b/data/nzd0109/nzd0109.xlsx
@@ -22110,13 +22110,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0956</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0921</v>
+        <v>0.1305</v>
       </c>
       <c r="I2" t="n">
         <v>0.2272930272377605</v>
@@ -22188,13 +22188,13 @@
         <v>0.0622725563293566</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0731</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0861</v>
+        <v>0.1044</v>
       </c>
       <c r="I3" t="n">
         <v>0.3687311767538567</v>
@@ -22266,13 +22266,13 @@
         <v>0.1248151316432745</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0581</v>
+        <v>0.0515</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0701</v>
+        <v>0.07240000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>0.3697861484214516</v>
@@ -22344,13 +22344,13 @@
         <v>0.1872402074003001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0607</v>
+        <v>0.0655</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0718</v>
+        <v>0.1101</v>
       </c>
       <c r="I5" t="n">
         <v>0.3928752198921772</v>
@@ -22425,10 +22425,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0633</v>
+        <v>0.0584</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0765</v>
+        <v>0.082</v>
       </c>
       <c r="I6" t="n">
         <v>0.3815609128036209</v>
@@ -22503,10 +22503,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0643</v>
+        <v>0.0587</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0762</v>
+        <v>0.0856</v>
       </c>
       <c r="I7" t="n">
         <v>0.4639505474412505</v>
@@ -22578,13 +22578,13 @@
         <v>0.3751673544209099</v>
       </c>
       <c r="F8" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0689</v>
+        <v>0.0713</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.1168</v>
       </c>
       <c r="I8" t="n">
         <v>0.4651281929350776</v>
@@ -22656,13 +22656,13 @@
         <v>0.4377259514726475</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0663</v>
+        <v>0.0644</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08019999999999999</v>
+        <v>0.1006</v>
       </c>
       <c r="I9" t="n">
         <v>0.4713885143945006</v>
@@ -22734,13 +22734,13 @@
         <v>0.5003533379388878</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0572</v>
+        <v>0.0592</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0643</v>
+        <v>0.1009</v>
       </c>
       <c r="I10" t="n">
         <v>0.4430476586405561</v>
@@ -22812,13 +22812,13 @@
         <v>0.5629644138018931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08</v>
+        <v>0.105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07340000000000001</v>
+        <v>0.0774</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09030000000000001</v>
+        <v>0.1629</v>
       </c>
       <c r="I11" t="n">
         <v>0.3741082820255799</v>
@@ -22890,13 +22890,13 @@
         <v>0.6256568308366174</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0793</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.096</v>
+        <v>0.1726</v>
       </c>
       <c r="I12" t="n">
         <v>0.4355151864212493</v>
@@ -22968,13 +22968,13 @@
         <v>0.6880794667846356</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09</v>
+        <v>0.045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0829</v>
+        <v>0.0384</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1016</v>
+        <v>0.0619</v>
       </c>
       <c r="I13" t="n">
         <v>0.4139494018843572</v>
@@ -23046,13 +23046,13 @@
         <v>0.750566778373686</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0649</v>
+        <v>0.062</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0805</v>
+        <v>0.1021</v>
       </c>
       <c r="I14" t="n">
         <v>0.5505905304758775</v>
@@ -23123,9 +23123,15 @@
       <c r="E15" t="n">
         <v>0.8130456488075134</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0595</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1047</v>
+      </c>
       <c r="I15" t="n">
         <v>0.6350264695198552</v>
       </c>
@@ -23196,13 +23202,13 @@
         <v>0.874617676643631</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0448</v>
+        <v>0.0496</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0586</v>
+        <v>0.1161</v>
       </c>
       <c r="I16" t="n">
         <v>0.3854257197668101</v>
@@ -23274,13 +23280,13 @@
         <v>0.9373075828871299</v>
       </c>
       <c r="F17" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0437</v>
+        <v>0.0336</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0507</v>
+        <v>0.0549</v>
       </c>
       <c r="I17" t="n">
         <v>0.4046430104055019</v>
@@ -23352,13 +23358,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0465</v>
+        <v>0.0507</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0587</v>
+        <v>0.1808</v>
       </c>
       <c r="I18" t="n">
         <v>-0.2141952366891907</v>
